--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>43917</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44859</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28639,7 +28639,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28696,7 +28696,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30654,7 +30654,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30996,7 +30996,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31053,7 +31053,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31343,7 +31343,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31400,7 +31400,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31457,7 +31457,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31514,7 +31514,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31871,7 +31871,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31928,7 +31928,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31985,7 +31985,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33973,7 +33973,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34439,7 +34439,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34553,7 +34553,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34610,7 +34610,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37632,7 +37632,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37689,7 +37689,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38217,7 +38217,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38393,7 +38393,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38450,7 +38450,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38512,7 +38512,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38569,7 +38569,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38745,7 +38745,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39516,7 +39516,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39697,7 +39697,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40830,7 +40830,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40892,7 +40892,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40954,7 +40954,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41011,7 +41011,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41073,7 +41073,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41254,7 +41254,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41440,7 +41440,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41968,7 +41968,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42025,7 +42025,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44211,7 +44211,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44496,7 +44496,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44553,7 +44553,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44610,7 +44610,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44667,7 +44667,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45014,7 +45014,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45071,7 +45071,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45128,7 +45128,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45185,7 +45185,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45527,7 +45527,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45584,7 +45584,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45641,7 +45641,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45703,7 +45703,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45889,7 +45889,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45951,7 +45951,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46008,7 +46008,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46127,7 +46127,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46184,7 +46184,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46241,7 +46241,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46355,7 +46355,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46412,7 +46412,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46469,7 +46469,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46526,7 +46526,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46645,7 +46645,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46707,7 +46707,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46769,7 +46769,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46826,7 +46826,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46940,7 +46940,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46997,7 +46997,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47054,7 +47054,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,14 +1060,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56172-2022</t>
+          <t>A 49753-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44889</v>
+        <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1081,20 +1081,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1118,6 +1118,102 @@
         <v>7</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Järpe
+Motaggsvamp
+Talltita
+Mandarinfingersvamp
+Norrlandslav
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56172-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44889</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -1128,92 +1224,92 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56172-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56172-2022.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56172-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 16233-2020</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43917</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>11.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -1223,87 +1319,87 @@
 Violmussling</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 16233-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 16233-2020.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 16233-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 47549-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44853</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45175</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>5</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -1313,126 +1409,31 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 47549-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 47549-2022.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 47549-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 49753-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44859</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45172</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Järpe
-Motaggsvamp
-Talltita
-Norrlandslav
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1443,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2259,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2439,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2627,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2811,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2903,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2995,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3271,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3906,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4001,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4092,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4183,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4269,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4360,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4446,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4537,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4628,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4713,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4803,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4893,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4983,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5073,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5163,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5253,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5432,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5526,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5701,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5795,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5885,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5975,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6060,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6240,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6330,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6420,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6510,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6600,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6690,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6870,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6955,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7045,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7102,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7159,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7216,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7273,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7330,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7387,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7444,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7501,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7558,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7615,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7672,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7729,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7791,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7848,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7910,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7967,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8024,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8086,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8143,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8200,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8257,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8319,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8381,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8443,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8500,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8557,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8614,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8671,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8728,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8790,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8852,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8914,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8976,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9033,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9095,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9157,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9214,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9271,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9333,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9390,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9447,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9504,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9566,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9628,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9685,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9742,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9804,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9866,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9928,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9985,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10047,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10109,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10166,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10223,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10280,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10337,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10394,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10451,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10508,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10565,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10627,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10684,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10741,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10798,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10855,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10912,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10974,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11031,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11088,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11145,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11202,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11259,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11316,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11378,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11440,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11497,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11559,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11621,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11683,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11745,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11807,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11869,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11931,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11993,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12055,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12112,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12174,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12236,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12293,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12350,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12412,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12474,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12536,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12593,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12655,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12712,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12769,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12826,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12888,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12945,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13002,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13064,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13126,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13183,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13245,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13302,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13364,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13488,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13545,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13607,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13664,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13721,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13778,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13835,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13897,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13979,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14041,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14103,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14160,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14217,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14279,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14336,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14393,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14455,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14512,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14569,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14626,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14688,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14750,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14807,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14869,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14926,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14988,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15050,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15107,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15164,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15226,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15288,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15350,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15407,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15469,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15531,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15593,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15655,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15712,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15769,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15826,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15888,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15950,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16012,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16074,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16136,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16198,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16260,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16322,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16384,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16441,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16503,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16565,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16627,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16689,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16751,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16813,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16875,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16937,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16999,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17056,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17113,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17175,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17237,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17294,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17351,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17413,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17475,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17537,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17594,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17651,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17708,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17765,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17822,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17879,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17941,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17998,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18060,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18122,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18184,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18241,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18303,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18365,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18427,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18489,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18613,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18675,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18737,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18799,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18861,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18918,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18975,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19037,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19099,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19161,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19218,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19275,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19332,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19394,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19451,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19508,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19570,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19627,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19689,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19751,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19813,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19870,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19932,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19989,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20046,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20103,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20165,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20222,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20279,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20341,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20403,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20465,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20522,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20579,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20636,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20693,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20755,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20812,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20869,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20931,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20993,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21055,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21117,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21199,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21256,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21318,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21380,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21437,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21494,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21551,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21608,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21670,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21732,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21794,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21856,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21913,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21975,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22037,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22099,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22161,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22218,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22280,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22342,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22404,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22466,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22523,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22580,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22637,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22699,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22756,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22813,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22870,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22927,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22989,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23046,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23103,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23165,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23289,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23351,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23413,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23475,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23537,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23599,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23661,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23723,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23785,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23847,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23909,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23971,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24033,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24090,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24152,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24214,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24276,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24338,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24400,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24457,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24514,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24576,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24633,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24690,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24752,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24809,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24871,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24933,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24990,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25052,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25109,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25166,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25228,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25290,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25352,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25409,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25471,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25533,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25590,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25652,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25709,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25766,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25823,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25880,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25942,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26004,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26061,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26118,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26180,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26237,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26299,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26361,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26423,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26480,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26537,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26594,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26651,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26708,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26770,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26832,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26889,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26951,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27008,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27070,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27132,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27194,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27271,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27328,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27385,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27442,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27499,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27556,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27613,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27670,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27727,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27784,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27841,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27898,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27955,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28012,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28069,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28126,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28183,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28240,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28297,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28354,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28411,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28468,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28525,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28582,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28639,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28696,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28758,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28815,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28872,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28929,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28986,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29048,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29105,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29162,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29219,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29276,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29333,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29390,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29447,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29504,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29561,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29618,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29675,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29732,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29789,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29846,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29903,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29960,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30022,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30079,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30136,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30193,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30250,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30307,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30364,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30421,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30478,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30535,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30592,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30654,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30711,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30768,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30825,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30882,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30939,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30996,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31053,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31110,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31167,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31229,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31286,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31343,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31400,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31457,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31514,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31576,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31633,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31690,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31752,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31814,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31871,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31928,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31985,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32047,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32109,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32171,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32233,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32290,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32347,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32409,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32471,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32528,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32585,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32642,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32704,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32766,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32823,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32880,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32937,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32994,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33051,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33108,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33170,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33232,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33289,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33346,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33403,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33460,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33517,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33574,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33631,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33688,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33745,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33802,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33859,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33916,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33973,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34035,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34092,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34154,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34211,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34268,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34325,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34382,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34439,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34496,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34553,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34610,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34667,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34724,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34781,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34843,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34905,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34967,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35024,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35081,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35138,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35200,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35257,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35314,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35371,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35428,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35485,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35542,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35599,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35656,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35713,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35770,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35827,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35889,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35946,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36008,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36070,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36132,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36194,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36256,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36318,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36380,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36442,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36504,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36566,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36628,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36690,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36752,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36814,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36876,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36933,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36990,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37047,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37104,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37166,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37223,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37280,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37337,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37394,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37451,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37508,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37570,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37632,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37689,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37751,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37808,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37865,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37922,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37979,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38036,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38098,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38155,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38217,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38274,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38336,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38393,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38450,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38512,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38569,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38626,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38683,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38745,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38807,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38864,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38921,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38978,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39035,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39092,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39154,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39216,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39273,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39335,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39397,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39454,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39516,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39573,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39635,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39697,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39754,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39816,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39878,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39935,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39992,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40049,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40106,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40168,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40230,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40287,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40344,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40401,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40458,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40520,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40582,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40644,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40706,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40768,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40830,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40892,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40954,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41011,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41073,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41135,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41192,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41254,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41316,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41378,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41440,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41502,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41559,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41616,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41673,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41735,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41792,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41849,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41906,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41968,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42025,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42082,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42139,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42196,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42258,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42315,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42372,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42429,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42486,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42543,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42600,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42657,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42714,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42771,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42828,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42885,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42942,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43004,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43061,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43118,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43180,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43237,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43294,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43351,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43408,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43465,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43522,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43579,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43636,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43693,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43750,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43807,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43864,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43921,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43978,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44035,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44092,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44149,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44211,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44268,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44325,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44382,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44439,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44496,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44553,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44610,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44667,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44724,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44786,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44843,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44900,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44957,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45014,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45071,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45128,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45185,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45242,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45299,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45356,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45413,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45470,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45527,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45584,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45641,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45703,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45765,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45827,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45889,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45951,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46008,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46065,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46127,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46184,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46241,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46298,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46355,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46412,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46469,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46526,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46583,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46645,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46707,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46769,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46826,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46883,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46940,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46997,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47054,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,14 +1060,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 49753-2022</t>
+          <t>A 56172-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44859</v>
+        <v>44889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1081,20 +1081,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>21.2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1118,102 +1118,6 @@
         <v>7</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Järpe
-Motaggsvamp
-Talltita
-Mandarinfingersvamp
-Norrlandslav
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 56172-2022</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>44889</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>7</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -1224,92 +1128,92 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56172-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56172-2022.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56172-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 16233-2020</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>43917</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C8" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G8" t="n">
         <v>11.1</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>6</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>6</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -1319,87 +1223,87 @@
 Violmussling</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 16233-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 16233-2020.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 16233-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 47549-2022</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>44853</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45175</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C9" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>9</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J9" t="n">
         <v>5</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>5</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -1409,31 +1313,126 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 47549-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 47549-2022.png")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 47549-2022.docx")</f>
         <v/>
       </c>
     </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 49753-2022</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44859</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>4</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Järpe
+Motaggsvamp
+Talltita
+Norrlandslav
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1444,7 +1443,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1537,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1626,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1715,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1804,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1897,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1985,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2078,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2171,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2259,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2347,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2439,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2531,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2627,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2719,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2811,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2903,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2995,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3087,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3179,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3271,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3363,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3450,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3542,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3633,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3724,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3815,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3906,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4001,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4092,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4183,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4269,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4360,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4446,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4537,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4628,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4713,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4803,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4893,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4984,7 +4983,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5074,7 +5073,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5164,7 +5163,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5254,7 +5253,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5348,7 +5347,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5432,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5526,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5616,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5701,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5795,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5885,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5975,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6060,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6151,7 +6150,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6240,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6330,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6420,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6511,7 +6510,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6601,7 +6600,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6691,7 +6690,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6781,7 +6780,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6871,7 +6870,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6956,7 +6955,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7046,7 +7045,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7103,7 +7102,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7160,7 +7159,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7217,7 +7216,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7274,7 +7273,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7331,7 +7330,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7388,7 +7387,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7445,7 +7444,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7502,7 +7501,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7559,7 +7558,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7616,7 +7615,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7673,7 +7672,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7730,7 +7729,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7792,7 +7791,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7849,7 +7848,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7911,7 +7910,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7968,7 +7967,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8025,7 +8024,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8087,7 +8086,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8144,7 +8143,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8201,7 +8200,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8258,7 +8257,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8320,7 +8319,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8382,7 +8381,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8444,7 +8443,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8501,7 +8500,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8558,7 +8557,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8615,7 +8614,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8672,7 +8671,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8729,7 +8728,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8791,7 +8790,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8853,7 +8852,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8915,7 +8914,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8977,7 +8976,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9034,7 +9033,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9096,7 +9095,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9158,7 +9157,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9215,7 +9214,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9272,7 +9271,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9334,7 +9333,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9391,7 +9390,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9448,7 +9447,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9505,7 +9504,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9567,7 +9566,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9629,7 +9628,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9686,7 +9685,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9743,7 +9742,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9805,7 +9804,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9866,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9929,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9986,7 +9985,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10048,7 +10047,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10110,7 +10109,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10167,7 +10166,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10224,7 +10223,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10281,7 +10280,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10338,7 +10337,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10395,7 +10394,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10452,7 +10451,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10509,7 +10508,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10566,7 +10565,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10628,7 +10627,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10685,7 +10684,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10742,7 +10741,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10799,7 +10798,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10856,7 +10855,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10913,7 +10912,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10975,7 +10974,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11032,7 +11031,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11089,7 +11088,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11146,7 +11145,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11203,7 +11202,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11260,7 +11259,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11317,7 +11316,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11379,7 +11378,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11441,7 +11440,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11498,7 +11497,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11560,7 +11559,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11622,7 +11621,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11684,7 +11683,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11746,7 +11745,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11808,7 +11807,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11870,7 +11869,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11932,7 +11931,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11994,7 +11993,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12056,7 +12055,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12113,7 +12112,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12175,7 +12174,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12236,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12293,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12350,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12413,7 +12412,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12475,7 +12474,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12537,7 +12536,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12594,7 +12593,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12656,7 +12655,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12713,7 +12712,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12770,7 +12769,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12827,7 +12826,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12889,7 +12888,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12946,7 +12945,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13003,7 +13002,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13065,7 +13064,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13127,7 +13126,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13184,7 +13183,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13246,7 +13245,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13303,7 +13302,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13365,7 +13364,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13426,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13489,7 +13488,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13546,7 +13545,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13608,7 +13607,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13665,7 +13664,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13722,7 +13721,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13779,7 +13778,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13836,7 +13835,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13898,7 +13897,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13980,7 +13979,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14042,7 +14041,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14103,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14160,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14217,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14280,7 +14279,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14337,7 +14336,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14394,7 +14393,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14456,7 +14455,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14513,7 +14512,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14570,7 +14569,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14627,7 +14626,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14689,7 +14688,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14751,7 +14750,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14808,7 +14807,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14870,7 +14869,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14927,7 +14926,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14989,7 +14988,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15051,7 +15050,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15108,7 +15107,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15165,7 +15164,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15227,7 +15226,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15289,7 +15288,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15351,7 +15350,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15408,7 +15407,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15470,7 +15469,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15532,7 +15531,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15594,7 +15593,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15656,7 +15655,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15713,7 +15712,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15770,7 +15769,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15827,7 +15826,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15889,7 +15888,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15951,7 +15950,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16013,7 +16012,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16075,7 +16074,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16137,7 +16136,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16199,7 +16198,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16261,7 +16260,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16323,7 +16322,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16385,7 +16384,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16442,7 +16441,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16504,7 +16503,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16566,7 +16565,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16628,7 +16627,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16690,7 +16689,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16752,7 +16751,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16813,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16876,7 +16875,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16938,7 +16937,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17000,7 +16999,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17057,7 +17056,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17113,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17175,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17238,7 +17237,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17295,7 +17294,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17352,7 +17351,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17414,7 +17413,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17475,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17538,7 +17537,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17595,7 +17594,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17652,7 +17651,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17709,7 +17708,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17766,7 +17765,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17822,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17879,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17941,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17998,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18060,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18122,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18184,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18241,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18304,7 +18303,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18366,7 +18365,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18428,7 +18427,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18490,7 +18489,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18552,7 +18551,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18614,7 +18613,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18676,7 +18675,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18738,7 +18737,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18800,7 +18799,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18862,7 +18861,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18919,7 +18918,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18976,7 +18975,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19038,7 +19037,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19100,7 +19099,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19162,7 +19161,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19219,7 +19218,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19276,7 +19275,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19333,7 +19332,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19395,7 +19394,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19452,7 +19451,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19509,7 +19508,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19571,7 +19570,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19628,7 +19627,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19690,7 +19689,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19752,7 +19751,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19814,7 +19813,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19871,7 +19870,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19933,7 +19932,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19990,7 +19989,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20047,7 +20046,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20104,7 +20103,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20166,7 +20165,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20222,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20279,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20341,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20404,7 +20403,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20466,7 +20465,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20523,7 +20522,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20579,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20637,7 +20636,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20694,7 +20693,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20756,7 +20755,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20813,7 +20812,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20870,7 +20869,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20932,7 +20931,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20993,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21056,7 +21055,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21118,7 +21117,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21200,7 +21199,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21257,7 +21256,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21319,7 +21318,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21381,7 +21380,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21438,7 +21437,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21495,7 +21494,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21552,7 +21551,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21609,7 +21608,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21671,7 +21670,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21733,7 +21732,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21795,7 +21794,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21857,7 +21856,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21914,7 +21913,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21976,7 +21975,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22038,7 +22037,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22100,7 +22099,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22162,7 +22161,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22219,7 +22218,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22281,7 +22280,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22343,7 +22342,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22405,7 +22404,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22467,7 +22466,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22524,7 +22523,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22581,7 +22580,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22638,7 +22637,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22700,7 +22699,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22757,7 +22756,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22814,7 +22813,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22871,7 +22870,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22928,7 +22927,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22990,7 +22989,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23047,7 +23046,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23104,7 +23103,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23166,7 +23165,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23227,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23290,7 +23289,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23352,7 +23351,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23414,7 +23413,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23476,7 +23475,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23538,7 +23537,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23600,7 +23599,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23662,7 +23661,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23724,7 +23723,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23786,7 +23785,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23848,7 +23847,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23910,7 +23909,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23972,7 +23971,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24034,7 +24033,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24091,7 +24090,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24153,7 +24152,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24215,7 +24214,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24276,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24339,7 +24338,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24401,7 +24400,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24458,7 +24457,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24515,7 +24514,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24577,7 +24576,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24634,7 +24633,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24691,7 +24690,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24753,7 +24752,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24810,7 +24809,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24872,7 +24871,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24934,7 +24933,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24991,7 +24990,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25053,7 +25052,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25110,7 +25109,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25167,7 +25166,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25229,7 +25228,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25291,7 +25290,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25353,7 +25352,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25410,7 +25409,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25472,7 +25471,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25534,7 +25533,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25591,7 +25590,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25653,7 +25652,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25710,7 +25709,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25767,7 +25766,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25824,7 +25823,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25881,7 +25880,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25943,7 +25942,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26005,7 +26004,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26062,7 +26061,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26119,7 +26118,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26181,7 +26180,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26238,7 +26237,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26300,7 +26299,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26362,7 +26361,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26424,7 +26423,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26481,7 +26480,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26538,7 +26537,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26595,7 +26594,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26652,7 +26651,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26709,7 +26708,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26771,7 +26770,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26833,7 +26832,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26890,7 +26889,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26952,7 +26951,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27009,7 +27008,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27071,7 +27070,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27133,7 +27132,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27195,7 +27194,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27272,7 +27271,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27329,7 +27328,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27386,7 +27385,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27443,7 +27442,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27500,7 +27499,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27557,7 +27556,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27614,7 +27613,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27671,7 +27670,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27728,7 +27727,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27785,7 +27784,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27842,7 +27841,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27899,7 +27898,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27956,7 +27955,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28013,7 +28012,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28070,7 +28069,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28127,7 +28126,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28184,7 +28183,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28241,7 +28240,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28298,7 +28297,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28355,7 +28354,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28412,7 +28411,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28469,7 +28468,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28526,7 +28525,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28583,7 +28582,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28640,7 +28639,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28697,7 +28696,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28759,7 +28758,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28816,7 +28815,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28873,7 +28872,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28930,7 +28929,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28987,7 +28986,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29049,7 +29048,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29106,7 +29105,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29163,7 +29162,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29220,7 +29219,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29277,7 +29276,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29334,7 +29333,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29391,7 +29390,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29448,7 +29447,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29505,7 +29504,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29562,7 +29561,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29619,7 +29618,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29676,7 +29675,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29733,7 +29732,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29790,7 +29789,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29846,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29903,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29960,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30023,7 +30022,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30080,7 +30079,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30137,7 +30136,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30193,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30251,7 +30250,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30308,7 +30307,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30365,7 +30364,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30422,7 +30421,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30479,7 +30478,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30536,7 +30535,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30593,7 +30592,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30655,7 +30654,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30712,7 +30711,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30769,7 +30768,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30826,7 +30825,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30883,7 +30882,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30940,7 +30939,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30997,7 +30996,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31054,7 +31053,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31111,7 +31110,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31168,7 +31167,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31230,7 +31229,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31287,7 +31286,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31344,7 +31343,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31401,7 +31400,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31458,7 +31457,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31515,7 +31514,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31577,7 +31576,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31634,7 +31633,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31691,7 +31690,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31753,7 +31752,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31815,7 +31814,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31872,7 +31871,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31929,7 +31928,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31986,7 +31985,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32048,7 +32047,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32110,7 +32109,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32172,7 +32171,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32234,7 +32233,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32291,7 +32290,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32348,7 +32347,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32410,7 +32409,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32472,7 +32471,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32529,7 +32528,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32586,7 +32585,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32643,7 +32642,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32705,7 +32704,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32767,7 +32766,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32824,7 +32823,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32881,7 +32880,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32938,7 +32937,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32995,7 +32994,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33052,7 +33051,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33109,7 +33108,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33171,7 +33170,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33233,7 +33232,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33290,7 +33289,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33347,7 +33346,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33404,7 +33403,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33461,7 +33460,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33518,7 +33517,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33575,7 +33574,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33632,7 +33631,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33689,7 +33688,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33746,7 +33745,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33803,7 +33802,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33860,7 +33859,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33917,7 +33916,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33974,7 +33973,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34036,7 +34035,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34093,7 +34092,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34155,7 +34154,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34212,7 +34211,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34269,7 +34268,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34326,7 +34325,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34383,7 +34382,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34440,7 +34439,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34497,7 +34496,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34554,7 +34553,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34611,7 +34610,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34668,7 +34667,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34725,7 +34724,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34782,7 +34781,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34844,7 +34843,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34906,7 +34905,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34968,7 +34967,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35025,7 +35024,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35082,7 +35081,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35139,7 +35138,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35201,7 +35200,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35258,7 +35257,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35315,7 +35314,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35372,7 +35371,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35429,7 +35428,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35486,7 +35485,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35543,7 +35542,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35600,7 +35599,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35657,7 +35656,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35714,7 +35713,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35771,7 +35770,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35828,7 +35827,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35890,7 +35889,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35947,7 +35946,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36009,7 +36008,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36071,7 +36070,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36133,7 +36132,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36195,7 +36194,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36257,7 +36256,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36319,7 +36318,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36381,7 +36380,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36443,7 +36442,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36505,7 +36504,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36567,7 +36566,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36629,7 +36628,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36691,7 +36690,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36753,7 +36752,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36815,7 +36814,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36877,7 +36876,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36934,7 +36933,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36991,7 +36990,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37048,7 +37047,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37105,7 +37104,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37167,7 +37166,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37224,7 +37223,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37281,7 +37280,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37338,7 +37337,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37395,7 +37394,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37452,7 +37451,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37509,7 +37508,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37571,7 +37570,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37633,7 +37632,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37690,7 +37689,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37752,7 +37751,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37809,7 +37808,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37866,7 +37865,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37923,7 +37922,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37980,7 +37979,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38037,7 +38036,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38099,7 +38098,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38156,7 +38155,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38218,7 +38217,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38275,7 +38274,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38337,7 +38336,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38394,7 +38393,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38451,7 +38450,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38513,7 +38512,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38570,7 +38569,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38627,7 +38626,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38684,7 +38683,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38746,7 +38745,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38808,7 +38807,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38865,7 +38864,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38922,7 +38921,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38979,7 +38978,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39036,7 +39035,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39093,7 +39092,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39155,7 +39154,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39217,7 +39216,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39274,7 +39273,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39336,7 +39335,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39398,7 +39397,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39455,7 +39454,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39517,7 +39516,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39574,7 +39573,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39636,7 +39635,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39698,7 +39697,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39755,7 +39754,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39817,7 +39816,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39879,7 +39878,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39936,7 +39935,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39993,7 +39992,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40050,7 +40049,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40107,7 +40106,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40169,7 +40168,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40231,7 +40230,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40288,7 +40287,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40345,7 +40344,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40402,7 +40401,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40459,7 +40458,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40521,7 +40520,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40583,7 +40582,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40645,7 +40644,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40707,7 +40706,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40769,7 +40768,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40830,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40892,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40954,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41012,7 +41011,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41073,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41136,7 +41135,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41192,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41254,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41317,7 +41316,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41379,7 +41378,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41441,7 +41440,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41503,7 +41502,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41560,7 +41559,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41617,7 +41616,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41674,7 +41673,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41736,7 +41735,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41793,7 +41792,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41850,7 +41849,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41907,7 +41906,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41969,7 +41968,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42026,7 +42025,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42083,7 +42082,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42140,7 +42139,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42197,7 +42196,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42259,7 +42258,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42316,7 +42315,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42373,7 +42372,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42430,7 +42429,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42487,7 +42486,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42544,7 +42543,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42601,7 +42600,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42658,7 +42657,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42715,7 +42714,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42772,7 +42771,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42829,7 +42828,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42886,7 +42885,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42943,7 +42942,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43005,7 +43004,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43062,7 +43061,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43119,7 +43118,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43181,7 +43180,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43238,7 +43237,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43295,7 +43294,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43352,7 +43351,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43409,7 +43408,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43466,7 +43465,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43523,7 +43522,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43580,7 +43579,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43637,7 +43636,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43694,7 +43693,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43751,7 +43750,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43807,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43865,7 +43864,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43922,7 +43921,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43979,7 +43978,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44036,7 +44035,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44093,7 +44092,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44150,7 +44149,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44212,7 +44211,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44269,7 +44268,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44326,7 +44325,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44383,7 +44382,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44440,7 +44439,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44497,7 +44496,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44554,7 +44553,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44611,7 +44610,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44668,7 +44667,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44725,7 +44724,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44787,7 +44786,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44844,7 +44843,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44901,7 +44900,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44958,7 +44957,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45015,7 +45014,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45072,7 +45071,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45129,7 +45128,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45186,7 +45185,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45243,7 +45242,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45300,7 +45299,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45357,7 +45356,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45414,7 +45413,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45471,7 +45470,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45528,7 +45527,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45585,7 +45584,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45642,7 +45641,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45704,7 +45703,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45766,7 +45765,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45828,7 +45827,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45890,7 +45889,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45952,7 +45951,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46009,7 +46008,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46066,7 +46065,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46128,7 +46127,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46185,7 +46184,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46242,7 +46241,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46299,7 +46298,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46356,7 +46355,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46413,7 +46412,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46470,7 +46469,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46527,7 +46526,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46584,7 +46583,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46646,7 +46645,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46708,7 +46707,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46770,7 +46769,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46827,7 +46826,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46884,7 +46883,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46941,7 +46940,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46998,7 +46997,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47055,7 +47054,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44889</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>43917</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44859</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1715,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1804,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2719,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3450,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3815,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4269,7 +4269,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4713,7 +4713,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5163,7 +5163,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5432,7 +5432,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5795,7 +5795,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5975,7 +5975,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6060,7 +6060,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6420,7 +6420,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6690,7 +6690,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7045,7 +7045,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7159,7 +7159,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7216,7 +7216,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7387,7 +7387,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7501,7 +7501,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7558,7 +7558,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7615,7 +7615,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7848,7 +7848,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7910,7 +7910,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8024,7 +8024,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8143,7 +8143,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8257,7 +8257,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8319,7 +8319,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8443,7 +8443,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8500,7 +8500,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8790,7 +8790,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8852,7 +8852,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9095,7 +9095,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9157,7 +9157,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9271,7 +9271,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9333,7 +9333,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9390,7 +9390,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9447,7 +9447,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9504,7 +9504,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9566,7 +9566,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10047,7 +10047,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10280,7 +10280,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10337,7 +10337,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10394,7 +10394,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10451,7 +10451,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10565,7 +10565,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11869,7 +11869,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12055,7 +12055,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12655,7 +12655,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12826,7 +12826,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12888,7 +12888,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12945,7 +12945,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13002,7 +13002,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13064,7 +13064,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13183,7 +13183,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13607,7 +13607,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13778,7 +13778,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13835,7 +13835,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13897,7 +13897,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13979,7 +13979,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14041,7 +14041,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14103,7 +14103,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14160,7 +14160,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14393,7 +14393,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14455,7 +14455,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14512,7 +14512,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14626,7 +14626,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14688,7 +14688,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14750,7 +14750,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14807,7 +14807,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15469,7 +15469,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15531,7 +15531,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15593,7 +15593,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15655,7 +15655,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15712,7 +15712,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15826,7 +15826,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15888,7 +15888,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15950,7 +15950,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16136,7 +16136,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16198,7 +16198,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16322,7 +16322,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16384,7 +16384,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16441,7 +16441,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16565,7 +16565,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16751,7 +16751,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16937,7 +16937,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17708,7 +17708,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17765,7 +17765,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17822,7 +17822,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17879,7 +17879,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18184,7 +18184,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18303,7 +18303,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18427,7 +18427,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18799,7 +18799,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18861,7 +18861,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18918,7 +18918,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19332,7 +19332,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19508,7 +19508,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19932,7 +19932,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20222,7 +20222,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20279,7 +20279,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20341,7 +20341,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20755,7 +20755,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20812,7 +20812,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20869,7 +20869,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21117,7 +21117,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21256,7 +21256,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21380,7 +21380,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21551,7 +21551,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21608,7 +21608,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21732,7 +21732,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21913,7 +21913,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22037,7 +22037,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22161,7 +22161,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22342,7 +22342,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22404,7 +22404,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22523,7 +22523,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22756,7 +22756,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22870,7 +22870,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22927,7 +22927,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23103,7 +23103,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23475,7 +23475,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23909,7 +23909,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23971,7 +23971,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24033,7 +24033,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24090,7 +24090,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24338,7 +24338,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24400,7 +24400,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24457,7 +24457,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24633,7 +24633,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24690,7 +24690,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24752,7 +24752,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24933,7 +24933,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25052,7 +25052,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25166,7 +25166,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25352,7 +25352,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25409,7 +25409,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25471,7 +25471,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25533,7 +25533,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25652,7 +25652,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25766,7 +25766,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25823,7 +25823,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25880,7 +25880,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26237,7 +26237,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26361,7 +26361,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26423,7 +26423,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26480,7 +26480,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26594,7 +26594,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26651,7 +26651,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26708,7 +26708,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26770,7 +26770,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26951,7 +26951,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27132,7 +27132,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27385,7 +27385,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27442,7 +27442,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27499,7 +27499,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27556,7 +27556,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27613,7 +27613,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27670,7 +27670,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27727,7 +27727,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27784,7 +27784,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27841,7 +27841,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27898,7 +27898,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27955,7 +27955,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28012,7 +28012,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28069,7 +28069,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28126,7 +28126,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28183,7 +28183,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28240,7 +28240,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28297,7 +28297,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28354,7 +28354,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28639,7 +28639,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28696,7 +28696,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28815,7 +28815,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28872,7 +28872,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28929,7 +28929,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29048,7 +29048,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29105,7 +29105,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29219,7 +29219,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29276,7 +29276,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29333,7 +29333,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29390,7 +29390,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29447,7 +29447,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29561,7 +29561,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29618,7 +29618,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29675,7 +29675,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29732,7 +29732,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29789,7 +29789,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29846,7 +29846,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29903,7 +29903,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29960,7 +29960,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30022,7 +30022,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30079,7 +30079,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30136,7 +30136,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30193,7 +30193,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30307,7 +30307,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30364,7 +30364,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30421,7 +30421,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30478,7 +30478,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30535,7 +30535,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30654,7 +30654,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30768,7 +30768,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30825,7 +30825,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30939,7 +30939,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30996,7 +30996,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31053,7 +31053,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31110,7 +31110,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31167,7 +31167,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31229,7 +31229,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31286,7 +31286,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31343,7 +31343,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31400,7 +31400,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31457,7 +31457,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31514,7 +31514,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31576,7 +31576,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31633,7 +31633,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31690,7 +31690,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31871,7 +31871,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31928,7 +31928,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31985,7 +31985,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32171,7 +32171,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32233,7 +32233,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32290,7 +32290,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32642,7 +32642,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32704,7 +32704,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32937,7 +32937,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32994,7 +32994,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33051,7 +33051,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33108,7 +33108,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33170,7 +33170,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33403,7 +33403,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33460,7 +33460,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33517,7 +33517,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33574,7 +33574,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33631,7 +33631,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33688,7 +33688,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33802,7 +33802,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33859,7 +33859,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33916,7 +33916,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33973,7 +33973,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34035,7 +34035,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34092,7 +34092,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34325,7 +34325,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34382,7 +34382,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34439,7 +34439,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34496,7 +34496,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34553,7 +34553,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34610,7 +34610,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34667,7 +34667,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34724,7 +34724,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34781,7 +34781,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34843,7 +34843,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34967,7 +34967,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35024,7 +35024,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35138,7 +35138,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35200,7 +35200,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35257,7 +35257,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35314,7 +35314,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35371,7 +35371,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35428,7 +35428,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35485,7 +35485,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35542,7 +35542,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35599,7 +35599,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35656,7 +35656,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35713,7 +35713,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35770,7 +35770,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35827,7 +35827,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35889,7 +35889,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35946,7 +35946,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36070,7 +36070,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36132,7 +36132,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36194,7 +36194,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36256,7 +36256,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36318,7 +36318,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36814,7 +36814,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36876,7 +36876,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36933,7 +36933,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37047,7 +37047,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37104,7 +37104,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37166,7 +37166,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37223,7 +37223,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37280,7 +37280,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37570,7 +37570,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37632,7 +37632,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37689,7 +37689,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37751,7 +37751,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37865,7 +37865,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38155,7 +38155,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38217,7 +38217,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38393,7 +38393,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38450,7 +38450,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38512,7 +38512,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38569,7 +38569,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38626,7 +38626,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38683,7 +38683,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38745,7 +38745,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39035,7 +39035,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39154,7 +39154,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39335,7 +39335,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39397,7 +39397,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39516,7 +39516,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39697,7 +39697,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40401,7 +40401,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40458,7 +40458,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40520,7 +40520,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40706,7 +40706,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40830,7 +40830,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40892,7 +40892,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40954,7 +40954,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41011,7 +41011,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41073,7 +41073,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41135,7 +41135,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41254,7 +41254,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41316,7 +41316,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41378,7 +41378,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41440,7 +41440,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41502,7 +41502,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41559,7 +41559,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41673,7 +41673,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41735,7 +41735,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41792,7 +41792,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41849,7 +41849,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41906,7 +41906,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41968,7 +41968,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42025,7 +42025,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42082,7 +42082,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42139,7 +42139,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42196,7 +42196,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42258,7 +42258,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42315,7 +42315,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42372,7 +42372,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42429,7 +42429,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42486,7 +42486,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42543,7 +42543,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42600,7 +42600,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42657,7 +42657,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42714,7 +42714,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42771,7 +42771,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42828,7 +42828,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42885,7 +42885,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42942,7 +42942,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43004,7 +43004,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43061,7 +43061,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43118,7 +43118,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43237,7 +43237,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43750,7 +43750,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43807,7 +43807,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43864,7 +43864,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43921,7 +43921,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43978,7 +43978,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44211,7 +44211,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44268,7 +44268,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44325,7 +44325,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44496,7 +44496,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44553,7 +44553,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44610,7 +44610,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44667,7 +44667,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44724,7 +44724,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44786,7 +44786,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44843,7 +44843,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44900,7 +44900,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44957,7 +44957,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45014,7 +45014,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45071,7 +45071,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45128,7 +45128,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45185,7 +45185,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45242,7 +45242,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45299,7 +45299,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45356,7 +45356,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45413,7 +45413,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45527,7 +45527,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45584,7 +45584,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45641,7 +45641,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45703,7 +45703,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45827,7 +45827,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45889,7 +45889,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45951,7 +45951,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46008,7 +46008,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46127,7 +46127,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46184,7 +46184,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46241,7 +46241,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46355,7 +46355,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46412,7 +46412,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46469,7 +46469,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46526,7 +46526,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46583,7 +46583,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46645,7 +46645,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46707,7 +46707,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46769,7 +46769,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46826,7 +46826,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46940,7 +46940,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46997,7 +46997,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47054,7 +47054,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1060,14 +1060,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56172-2022</t>
+          <t>A 49753-2022</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44889</v>
+        <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1081,20 +1081,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
         <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1118,6 +1118,102 @@
         <v>7</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Garnlav
+Järpe
+Motaggsvamp
+Talltita
+Mandarinfingersvamp
+Norrlandslav
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 56172-2022</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44889</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>7</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -1128,92 +1224,92 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56172-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56172-2022.png")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56172-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56172-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 16233-2020</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>43917</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G9" t="n">
         <v>11.1</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>6</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>6</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Garnlav
 Granticka
@@ -1223,87 +1319,87 @@
 Violmussling</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 16233-2020.xlsx")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 16233-2020.png")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 16233-2020.docx")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 16233-2020.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 47549-2022</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>44853</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>45179</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>5</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>5</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Gammelgransskål
 Garnlav
@@ -1313,126 +1409,31 @@
 Dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 47549-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 47549-2022.png")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 47549-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 47549-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 49753-2022</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>44859</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>45178</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>BODEN</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Garnlav
-Järpe
-Motaggsvamp
-Talltita
-Norrlandslav
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1443,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1537,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1626,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1715,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1804,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1897,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1985,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2078,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2171,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2259,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2347,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2439,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2531,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2627,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2719,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2811,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2903,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2995,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3087,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3179,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3271,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3363,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3450,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3542,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3633,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3724,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3815,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3906,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4001,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4092,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4183,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4269,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4360,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4446,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4537,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4628,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4713,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4803,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4893,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4983,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5073,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5163,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5253,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5347,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5432,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5526,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5616,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5701,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5795,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5885,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5975,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6060,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6240,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6330,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6420,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6510,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6600,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6690,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6870,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6955,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7045,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7102,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7159,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7216,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7273,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7330,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7387,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7444,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7501,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7558,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7615,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7672,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7729,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7791,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7848,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7910,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7967,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8024,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8086,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8143,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8200,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8257,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8319,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8381,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8443,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8500,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8557,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8614,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8671,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8728,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8790,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8852,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8914,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8976,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9033,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9095,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9157,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9214,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9271,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9333,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9390,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9447,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9504,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9566,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9628,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9685,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9742,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9804,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9866,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9928,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9985,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10047,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10109,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10166,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10223,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10280,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10337,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10394,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10451,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10508,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10565,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10627,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10684,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10741,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10798,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10855,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10912,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10974,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11031,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11088,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11145,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11202,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11259,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11316,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11378,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11440,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11497,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11559,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11621,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11683,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11745,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11807,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11869,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11931,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11993,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12055,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12112,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12174,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12236,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12293,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12350,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12412,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12474,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12536,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12593,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12655,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12712,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12769,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12826,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12888,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12945,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13002,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13064,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13126,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13183,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13245,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13302,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13364,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13426,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13488,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13545,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13607,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13664,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13721,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13778,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13835,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13897,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13979,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14041,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14103,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14160,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14217,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14279,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14336,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14393,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14455,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14512,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14569,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14626,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14688,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14750,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14807,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14869,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14926,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14988,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15050,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15107,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15164,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15226,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15288,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15350,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15407,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15469,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15531,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15593,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15655,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15712,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15769,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15826,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15888,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15950,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16012,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16074,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16136,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16198,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16260,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16322,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16384,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16441,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16503,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16565,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16627,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16689,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16751,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16813,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16875,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16937,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16999,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17056,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17113,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17175,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17237,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17294,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17351,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17413,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17475,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17537,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17594,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17651,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17708,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17765,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17822,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17879,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17941,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17998,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18060,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18122,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18184,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18241,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18303,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18365,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18427,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18489,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18551,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18613,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18675,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18737,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18799,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18861,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18918,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18975,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19037,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19099,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19161,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19218,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19275,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19332,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19394,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19451,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19508,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19570,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19627,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19689,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19751,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19813,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19870,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19932,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19989,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20046,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20103,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20165,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20222,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20279,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20341,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20403,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20465,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20522,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20579,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20636,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20693,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20755,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20812,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20869,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20931,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20993,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21055,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21117,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21199,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21256,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21318,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21380,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21437,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21494,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21551,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21608,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21670,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21732,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21794,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21856,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21913,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21975,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22037,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22099,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22161,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22218,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22280,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22342,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22404,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22466,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22523,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22580,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22637,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22699,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22756,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22813,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22870,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22927,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22989,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23046,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23103,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23165,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23227,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23289,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23351,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23413,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23475,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23537,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23599,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23661,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23723,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23785,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23847,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23909,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23971,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24033,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24090,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24152,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24214,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24276,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24338,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24400,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24457,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24514,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24576,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24633,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24690,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24752,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24809,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24871,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24933,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24990,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25052,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25109,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25166,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25228,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25290,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25352,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25409,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25471,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25533,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25590,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25652,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25709,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25766,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25823,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25880,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25942,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26004,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26061,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26118,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26180,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26237,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26299,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26361,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26423,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26480,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26537,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26594,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26651,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26708,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26770,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26832,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26889,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26951,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27008,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27070,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27132,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27194,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27271,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27328,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27385,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27442,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27499,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27556,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27613,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27670,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27727,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27784,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27841,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27898,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27955,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28012,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28069,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28126,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28183,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28240,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28297,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28354,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28411,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28468,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28525,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28582,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28639,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28696,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28758,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28815,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28872,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28929,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28986,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29048,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29105,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29162,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29219,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29276,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29333,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29390,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29447,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29504,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29561,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29618,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29675,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29732,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29789,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29846,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29903,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29960,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30022,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30079,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30136,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30193,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30250,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30307,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30364,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30421,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30478,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30535,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30592,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30654,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30711,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30768,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30825,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30882,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30939,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30996,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31053,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31110,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31167,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31229,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31286,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31343,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31400,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31457,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31514,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31576,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31633,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31690,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31752,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31814,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31871,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31928,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31985,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32047,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32109,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32171,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32233,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32290,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32347,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32409,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32471,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32528,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32585,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32642,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32704,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32766,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32823,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32880,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32937,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32994,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33051,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33108,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33170,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33232,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33289,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33346,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33403,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33460,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33517,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33574,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33631,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33688,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33745,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33802,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33859,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33916,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33973,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34035,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34092,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34154,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34211,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34268,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34325,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34382,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34439,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34496,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34553,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34610,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34667,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34724,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34781,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34843,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34905,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34967,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35024,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35081,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35138,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35200,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35257,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35314,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35371,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35428,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35485,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35542,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35599,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35656,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35713,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35770,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35827,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35889,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35946,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36008,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36070,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36132,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36194,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36256,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36318,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36380,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36442,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36504,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36566,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36628,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36690,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36752,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36814,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36876,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36933,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36990,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37047,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37104,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37166,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37223,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37280,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37337,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37394,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37451,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37508,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37570,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37632,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37689,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37751,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37808,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37865,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37922,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37979,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38036,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38098,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38155,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38217,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38274,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38336,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38393,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38450,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38512,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38569,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38626,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38683,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38745,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38807,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38864,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38921,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38978,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39035,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39092,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39154,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39216,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39273,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39335,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39397,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39454,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39516,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39573,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39635,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39697,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39754,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39816,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39878,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39935,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39992,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40049,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40106,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40168,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40230,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40287,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40344,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40401,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40458,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40520,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40582,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40644,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40706,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40768,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40830,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40892,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40954,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41011,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41073,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41135,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41192,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41254,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41316,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41378,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41440,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41502,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41559,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41616,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41673,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41735,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41792,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41849,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41906,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41968,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42025,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42082,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42139,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42196,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42258,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42315,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42372,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42429,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42486,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42543,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42600,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42657,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42714,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42771,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42828,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42885,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42942,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43004,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43061,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43118,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43180,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43237,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43294,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43351,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43408,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43465,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43522,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43579,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43636,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43693,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43750,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43807,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43864,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43921,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43978,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44035,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44092,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44149,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44211,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44268,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44325,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44382,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44439,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44496,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44553,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44610,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44667,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44724,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44786,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44843,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44900,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44957,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45014,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45071,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45128,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45185,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45242,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45299,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45356,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45413,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45470,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45527,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45584,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45641,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45703,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45765,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45827,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45889,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45951,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46008,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46065,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46127,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46184,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46241,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46298,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46355,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46412,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46469,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46526,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46583,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46645,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46707,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46769,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46826,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46883,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46940,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46997,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47054,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36567,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36877,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36934,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36991,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37048,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37105,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38394,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38746,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38922,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40707,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41441,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43694,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45243,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45414,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45642,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36567,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36877,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36934,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36991,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37048,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37105,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38394,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38746,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38922,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40707,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41441,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43694,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45243,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45414,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45642,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36567,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36877,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36934,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36991,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37048,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37105,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38394,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38746,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38922,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40707,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41441,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43694,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45243,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45414,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45642,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36567,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36877,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36934,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36991,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37048,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37105,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38394,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38746,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38922,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40707,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41441,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43694,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45243,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45414,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45642,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -647,27 +647,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 10148-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 10148-2022.xlsx", "A 10148-2022")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 10148-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 10148-2022.png", "A 10148-2022")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 10148-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 10148-2022.docx", "A 10148-2022")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 10148-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 10148-2022.docx", "A 10148-2022")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 10148-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 10148-2022.docx", "A 10148-2022")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 10148-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 10148-2022.docx", "A 10148-2022")</f>
         <v/>
       </c>
     </row>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -743,27 +743,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 47547-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 47547-2022.xlsx", "A 47547-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 47547-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 47547-2022.png", "A 47547-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 47547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 47547-2022.docx", "A 47547-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 47547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 47547-2022.docx", "A 47547-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 47547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 47547-2022.docx", "A 47547-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 47547-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 47547-2022.docx", "A 47547-2022")</f>
         <v/>
       </c>
     </row>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,27 +841,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 52582-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 52582-2019.xlsx", "A 52582-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 52582-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 52582-2019.png", "A 52582-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 52582-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 52582-2019.docx", "A 52582-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 52582-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 52582-2019.docx", "A 52582-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 52582-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 52582-2019.docx", "A 52582-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 52582-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 52582-2019.docx", "A 52582-2019")</f>
         <v/>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -937,27 +937,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 12522-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 12522-2020.xlsx", "A 12522-2020")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 12522-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 12522-2020.png", "A 12522-2020")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 12522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 12522-2020.docx", "A 12522-2020")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 12522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 12522-2020.docx", "A 12522-2020")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 12522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 12522-2020.docx", "A 12522-2020")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 12522-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 12522-2020.docx", "A 12522-2020")</f>
         <v/>
       </c>
     </row>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1033,27 +1033,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43738-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43738-2020.xlsx", "A 43738-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43738-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43738-2020.png", "A 43738-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43738-2020.docx", "A 43738-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43738-2020.docx", "A 43738-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43738-2020.docx", "A 43738-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43738-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43738-2020.docx", "A 43738-2020")</f>
         <v/>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1129,27 +1129,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49753-2022.xlsx", "A 49753-2022")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49753-2022.png", "A 49753-2022")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49753-2022.docx", "A 49753-2022")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49753-2022.docx", "A 49753-2022")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49753-2022.docx", "A 49753-2022")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49753-2022.docx", "A 49753-2022")</f>
         <v/>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1225,27 +1225,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56172-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56172-2022.xlsx", "A 56172-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56172-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56172-2022.png", "A 56172-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56172-2022.docx", "A 56172-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56172-2022.docx", "A 56172-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56172-2022.docx", "A 56172-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56172-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56172-2022.docx", "A 56172-2022")</f>
         <v/>
       </c>
     </row>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1320,27 +1320,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 16233-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 16233-2020.xlsx", "A 16233-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 16233-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 16233-2020.png", "A 16233-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 16233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 16233-2020.docx", "A 16233-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 16233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 16233-2020.docx", "A 16233-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 16233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 16233-2020.docx", "A 16233-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 16233-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 16233-2020.docx", "A 16233-2020")</f>
         <v/>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,27 +1410,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 47549-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 47549-2022.xlsx", "A 47549-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 47549-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 47549-2022.png", "A 47549-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 47549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 47549-2022.docx", "A 47549-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 47549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 47549-2022.docx", "A 47549-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 47549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 47549-2022.docx", "A 47549-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 47549-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 47549-2022.docx", "A 47549-2022")</f>
         <v/>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,27 +1504,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 52585-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 52585-2019.xlsx", "A 52585-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 52585-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 52585-2019.png", "A 52585-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 52585-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 52585-2019.docx", "A 52585-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 52585-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 52585-2019.docx", "A 52585-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 52585-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 52585-2019.docx", "A 52585-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 52585-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 52585-2019.docx", "A 52585-2019")</f>
         <v/>
       </c>
     </row>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,27 +1593,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 54602-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 54602-2019.xlsx", "A 54602-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 54602-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 54602-2019.png", "A 54602-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 54602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 54602-2019.docx", "A 54602-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 54602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 54602-2019.docx", "A 54602-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 54602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 54602-2019.docx", "A 54602-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 54602-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 54602-2019.docx", "A 54602-2019")</f>
         <v/>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1682,27 +1682,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 64709-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 64709-2020.xlsx", "A 64709-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 64709-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 64709-2020.png", "A 64709-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 64709-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 64709-2020.docx", "A 64709-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 64709-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 64709-2020.docx", "A 64709-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 64709-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 64709-2020.docx", "A 64709-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 64709-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 64709-2020.docx", "A 64709-2020")</f>
         <v/>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,27 +1771,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 19598-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 19598-2023.xlsx", "A 19598-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 19598-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 19598-2023.png", "A 19598-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 19598-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 19598-2023.docx", "A 19598-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 19598-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 19598-2023.docx", "A 19598-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 19598-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 19598-2023.docx", "A 19598-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 19598-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 19598-2023.docx", "A 19598-2023")</f>
         <v/>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1864,27 +1864,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 69159-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 69159-2018.xlsx", "A 69159-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 69159-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 69159-2018.png", "A 69159-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 69159-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 69159-2018.docx", "A 69159-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 69159-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 69159-2018.docx", "A 69159-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 69159-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 69159-2018.docx", "A 69159-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 69159-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 69159-2018.docx", "A 69159-2018")</f>
         <v/>
       </c>
     </row>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1952,27 +1952,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 67604-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 67604-2019.xlsx", "A 67604-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 67604-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 67604-2019.png", "A 67604-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 67604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 67604-2019.docx", "A 67604-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 67604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 67604-2019.docx", "A 67604-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 67604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 67604-2019.docx", "A 67604-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 67604-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 67604-2019.docx", "A 67604-2019")</f>
         <v/>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2045,27 +2045,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 27084-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 27084-2020.xlsx", "A 27084-2020")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 27084-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 27084-2020.png", "A 27084-2020")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 27084-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 27084-2020.docx", "A 27084-2020")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 27084-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 27084-2020.docx", "A 27084-2020")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 27084-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 27084-2020.docx", "A 27084-2020")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 27084-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 27084-2020.docx", "A 27084-2020")</f>
         <v/>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2138,27 +2138,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 30786-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 30786-2020.xlsx", "A 30786-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 30786-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 30786-2020.png", "A 30786-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 30786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 30786-2020.docx", "A 30786-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 30786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 30786-2020.docx", "A 30786-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 30786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 30786-2020.docx", "A 30786-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 30786-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 30786-2020.docx", "A 30786-2020")</f>
         <v/>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2226,27 +2226,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62075-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62075-2020.xlsx", "A 62075-2020")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62075-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62075-2020.png", "A 62075-2020")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62075-2020.docx", "A 62075-2020")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62075-2020.docx", "A 62075-2020")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62075-2020.docx", "A 62075-2020")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62075-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62075-2020.docx", "A 62075-2020")</f>
         <v/>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2314,27 +2314,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 30541-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 30541-2021.xlsx", "A 30541-2021")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 30541-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 30541-2021.png", "A 30541-2021")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 30541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 30541-2021.docx", "A 30541-2021")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 30541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 30541-2021.docx", "A 30541-2021")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 30541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 30541-2021.docx", "A 30541-2021")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 30541-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 30541-2021.docx", "A 30541-2021")</f>
         <v/>
       </c>
     </row>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,27 +2406,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 20477-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 20477-2019.xlsx", "A 20477-2019")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 20477-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 20477-2019.png", "A 20477-2019")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 20477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 20477-2019.docx", "A 20477-2019")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 20477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 20477-2019.docx", "A 20477-2019")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 20477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 20477-2019.docx", "A 20477-2019")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 20477-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 20477-2019.docx", "A 20477-2019")</f>
         <v/>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2498,27 +2498,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 58965-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 58965-2019.xlsx", "A 58965-2019")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 58965-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 58965-2019.png", "A 58965-2019")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 58965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 58965-2019.docx", "A 58965-2019")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 58965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 58965-2019.docx", "A 58965-2019")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 58965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 58965-2019.docx", "A 58965-2019")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 58965-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 58965-2019.docx", "A 58965-2019")</f>
         <v/>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2590,31 +2590,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62167-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62167-2019.xlsx", "A 62167-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62167-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62167-2019.png", "A 62167-2019")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 62167-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 62167-2019.png", "A 62167-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62167-2019.docx", "A 62167-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62167-2019.docx", "A 62167-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62167-2019.docx", "A 62167-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62167-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62167-2019.docx", "A 62167-2019")</f>
         <v/>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2686,27 +2686,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62172-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62172-2019.xlsx", "A 62172-2019")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62172-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62172-2019.png", "A 62172-2019")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62172-2019.docx", "A 62172-2019")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62172-2019.docx", "A 62172-2019")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62172-2019.docx", "A 62172-2019")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62172-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62172-2019.docx", "A 62172-2019")</f>
         <v/>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,27 +2778,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 65081-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 65081-2019.xlsx", "A 65081-2019")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 65081-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 65081-2019.png", "A 65081-2019")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 65081-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 65081-2019.docx", "A 65081-2019")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 65081-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 65081-2019.docx", "A 65081-2019")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 65081-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 65081-2019.docx", "A 65081-2019")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 65081-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 65081-2019.docx", "A 65081-2019")</f>
         <v/>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,27 +2870,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43640-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43640-2020.xlsx", "A 43640-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43640-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43640-2020.png", "A 43640-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43640-2020.docx", "A 43640-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43640-2020.docx", "A 43640-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43640-2020.docx", "A 43640-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43640-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43640-2020.docx", "A 43640-2020")</f>
         <v/>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2962,27 +2962,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 44419-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 44419-2020.xlsx", "A 44419-2020")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 44419-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 44419-2020.png", "A 44419-2020")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 44419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 44419-2020.docx", "A 44419-2020")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 44419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 44419-2020.docx", "A 44419-2020")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 44419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 44419-2020.docx", "A 44419-2020")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 44419-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 44419-2020.docx", "A 44419-2020")</f>
         <v/>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3054,27 +3054,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 55246-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 55246-2020.xlsx", "A 55246-2020")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 55246-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 55246-2020.png", "A 55246-2020")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 55246-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 55246-2020.docx", "A 55246-2020")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 55246-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 55246-2020.docx", "A 55246-2020")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 55246-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 55246-2020.docx", "A 55246-2020")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 55246-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 55246-2020.docx", "A 55246-2020")</f>
         <v/>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3146,27 +3146,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 24447-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 24447-2021.xlsx", "A 24447-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 24447-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 24447-2021.png", "A 24447-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 24447-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 24447-2021.docx", "A 24447-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 24447-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 24447-2021.docx", "A 24447-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 24447-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 24447-2021.docx", "A 24447-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 24447-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 24447-2021.docx", "A 24447-2021")</f>
         <v/>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,27 +3238,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 51247-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 51247-2022.xlsx", "A 51247-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 51247-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 51247-2022.png", "A 51247-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 51247-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 51247-2022.docx", "A 51247-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 51247-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 51247-2022.docx", "A 51247-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 51247-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 51247-2022.docx", "A 51247-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 51247-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 51247-2022.docx", "A 51247-2022")</f>
         <v/>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3330,27 +3330,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 53005-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 53005-2022.xlsx", "A 53005-2022")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 53005-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 53005-2022.png", "A 53005-2022")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 53005-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 53005-2022.docx", "A 53005-2022")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 53005-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 53005-2022.docx", "A 53005-2022")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 53005-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 53005-2022.docx", "A 53005-2022")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 53005-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 53005-2022.docx", "A 53005-2022")</f>
         <v/>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3417,27 +3417,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 59358-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 59358-2022.xlsx", "A 59358-2022")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 59358-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 59358-2022.png", "A 59358-2022")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 59358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 59358-2022.docx", "A 59358-2022")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 59358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 59358-2022.docx", "A 59358-2022")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 59358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 59358-2022.docx", "A 59358-2022")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 59358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 59358-2022.docx", "A 59358-2022")</f>
         <v/>
       </c>
     </row>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,27 +3509,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 6243-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 6243-2023.xlsx", "A 6243-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 6243-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 6243-2023.png", "A 6243-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 6243-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 6243-2023.docx", "A 6243-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 6243-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 6243-2023.docx", "A 6243-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 6243-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 6243-2023.docx", "A 6243-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 6243-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 6243-2023.docx", "A 6243-2023")</f>
         <v/>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3600,27 +3600,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 21127-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 21127-2019.xlsx", "A 21127-2019")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 21127-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 21127-2019.png", "A 21127-2019")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 21127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 21127-2019.docx", "A 21127-2019")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 21127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 21127-2019.docx", "A 21127-2019")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 21127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 21127-2019.docx", "A 21127-2019")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 21127-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 21127-2019.docx", "A 21127-2019")</f>
         <v/>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3691,27 +3691,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 24672-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 24672-2019.xlsx", "A 24672-2019")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 24672-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 24672-2019.png", "A 24672-2019")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 24672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 24672-2019.docx", "A 24672-2019")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 24672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 24672-2019.docx", "A 24672-2019")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 24672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 24672-2019.docx", "A 24672-2019")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 24672-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 24672-2019.docx", "A 24672-2019")</f>
         <v/>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3782,27 +3782,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 52586-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 52586-2019.xlsx", "A 52586-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 52586-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 52586-2019.png", "A 52586-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 52586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 52586-2019.docx", "A 52586-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 52586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 52586-2019.docx", "A 52586-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 52586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 52586-2019.docx", "A 52586-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 52586-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 52586-2019.docx", "A 52586-2019")</f>
         <v/>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3873,27 +3873,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56355-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56355-2019.xlsx", "A 56355-2019")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56355-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56355-2019.png", "A 56355-2019")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56355-2019.docx", "A 56355-2019")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56355-2019.docx", "A 56355-2019")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56355-2019.docx", "A 56355-2019")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56355-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56355-2019.docx", "A 56355-2019")</f>
         <v/>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3964,31 +3964,31 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 39595-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 39595-2020.xlsx", "A 39595-2020")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 39595-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 39595-2020.png", "A 39595-2020")</f>
         <v/>
       </c>
       <c r="U38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 39595-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 39595-2020.png", "A 39595-2020")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 39595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 39595-2020.docx", "A 39595-2020")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 39595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 39595-2020.docx", "A 39595-2020")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 39595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 39595-2020.docx", "A 39595-2020")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 39595-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 39595-2020.docx", "A 39595-2020")</f>
         <v/>
       </c>
     </row>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4059,27 +4059,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43635-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43635-2020.xlsx", "A 43635-2020")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43635-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43635-2020.png", "A 43635-2020")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43635-2020.docx", "A 43635-2020")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43635-2020.docx", "A 43635-2020")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43635-2020.docx", "A 43635-2020")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43635-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43635-2020.docx", "A 43635-2020")</f>
         <v/>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4150,27 +4150,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 63621-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 63621-2020.xlsx", "A 63621-2020")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 63621-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 63621-2020.png", "A 63621-2020")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 63621-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 63621-2020.docx", "A 63621-2020")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 63621-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 63621-2020.docx", "A 63621-2020")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 63621-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 63621-2020.docx", "A 63621-2020")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 63621-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 63621-2020.docx", "A 63621-2020")</f>
         <v/>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4236,27 +4236,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 64565-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 64565-2020.xlsx", "A 64565-2020")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 64565-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 64565-2020.png", "A 64565-2020")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 64565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 64565-2020.docx", "A 64565-2020")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 64565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 64565-2020.docx", "A 64565-2020")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 64565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 64565-2020.docx", "A 64565-2020")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 64565-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 64565-2020.docx", "A 64565-2020")</f>
         <v/>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4327,27 +4327,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 70382-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 70382-2021.xlsx", "A 70382-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 70382-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 70382-2021.png", "A 70382-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 70382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 70382-2021.docx", "A 70382-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 70382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 70382-2021.docx", "A 70382-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 70382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 70382-2021.docx", "A 70382-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 70382-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 70382-2021.docx", "A 70382-2021")</f>
         <v/>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4413,27 +4413,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 8137-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 8137-2022.xlsx", "A 8137-2022")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 8137-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 8137-2022.png", "A 8137-2022")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 8137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 8137-2022.docx", "A 8137-2022")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 8137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 8137-2022.docx", "A 8137-2022")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 8137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 8137-2022.docx", "A 8137-2022")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 8137-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 8137-2022.docx", "A 8137-2022")</f>
         <v/>
       </c>
     </row>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4504,27 +4504,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 36629-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 36629-2022.xlsx", "A 36629-2022")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 36629-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 36629-2022.png", "A 36629-2022")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 36629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 36629-2022.docx", "A 36629-2022")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 36629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 36629-2022.docx", "A 36629-2022")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 36629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 36629-2022.docx", "A 36629-2022")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 36629-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 36629-2022.docx", "A 36629-2022")</f>
         <v/>
       </c>
     </row>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4595,27 +4595,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 22906-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 22906-2023.xlsx", "A 22906-2023")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 22906-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 22906-2023.png", "A 22906-2023")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 22906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 22906-2023.docx", "A 22906-2023")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 22906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 22906-2023.docx", "A 22906-2023")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 22906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 22906-2023.docx", "A 22906-2023")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 22906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 22906-2023.docx", "A 22906-2023")</f>
         <v/>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4680,27 +4680,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 35173-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 35173-2018.xlsx", "A 35173-2018")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 35173-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 35173-2018.png", "A 35173-2018")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 35173-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 35173-2018.docx", "A 35173-2018")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 35173-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 35173-2018.docx", "A 35173-2018")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 35173-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 35173-2018.docx", "A 35173-2018")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 35173-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 35173-2018.docx", "A 35173-2018")</f>
         <v/>
       </c>
     </row>
@@ -4714,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4770,27 +4770,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 45410-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 45410-2018.xlsx", "A 45410-2018")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 45410-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 45410-2018.png", "A 45410-2018")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 45410-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 45410-2018.docx", "A 45410-2018")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 45410-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 45410-2018.docx", "A 45410-2018")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 45410-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 45410-2018.docx", "A 45410-2018")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 45410-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 45410-2018.docx", "A 45410-2018")</f>
         <v/>
       </c>
     </row>
@@ -4804,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4860,27 +4860,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49746-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49746-2018.xlsx", "A 49746-2018")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49746-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49746-2018.png", "A 49746-2018")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49746-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49746-2018.docx", "A 49746-2018")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49746-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49746-2018.docx", "A 49746-2018")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49746-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49746-2018.docx", "A 49746-2018")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49746-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49746-2018.docx", "A 49746-2018")</f>
         <v/>
       </c>
     </row>
@@ -4894,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4950,27 +4950,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 55415-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 55415-2018.xlsx", "A 55415-2018")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 55415-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 55415-2018.png", "A 55415-2018")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 55415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 55415-2018.docx", "A 55415-2018")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 55415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 55415-2018.docx", "A 55415-2018")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 55415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 55415-2018.docx", "A 55415-2018")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 55415-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 55415-2018.docx", "A 55415-2018")</f>
         <v/>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5040,27 +5040,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 63639-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 63639-2018.xlsx", "A 63639-2018")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 63639-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 63639-2018.png", "A 63639-2018")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 63639-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 63639-2018.docx", "A 63639-2018")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 63639-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 63639-2018.docx", "A 63639-2018")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 63639-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 63639-2018.docx", "A 63639-2018")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 63639-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 63639-2018.docx", "A 63639-2018")</f>
         <v/>
       </c>
     </row>
@@ -5074,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5130,27 +5130,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 21123-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 21123-2019.xlsx", "A 21123-2019")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 21123-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 21123-2019.png", "A 21123-2019")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 21123-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 21123-2019.docx", "A 21123-2019")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 21123-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 21123-2019.docx", "A 21123-2019")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 21123-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 21123-2019.docx", "A 21123-2019")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 21123-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 21123-2019.docx", "A 21123-2019")</f>
         <v/>
       </c>
     </row>
@@ -5164,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5220,27 +5220,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 35824-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 35824-2019.xlsx", "A 35824-2019")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 35824-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 35824-2019.png", "A 35824-2019")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 35824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 35824-2019.docx", "A 35824-2019")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 35824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 35824-2019.docx", "A 35824-2019")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 35824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 35824-2019.docx", "A 35824-2019")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 35824-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 35824-2019.docx", "A 35824-2019")</f>
         <v/>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5310,31 +5310,31 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 54126-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 54126-2019.xlsx", "A 54126-2019")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 54126-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 54126-2019.png", "A 54126-2019")</f>
         <v/>
       </c>
       <c r="U53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 54126-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 54126-2019.png", "A 54126-2019")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 54126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 54126-2019.docx", "A 54126-2019")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 54126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 54126-2019.docx", "A 54126-2019")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 54126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 54126-2019.docx", "A 54126-2019")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 54126-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 54126-2019.docx", "A 54126-2019")</f>
         <v/>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5399,27 +5399,27 @@
         </is>
       </c>
       <c r="S54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56916-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 56916-2019.xlsx", "A 56916-2019")</f>
         <v/>
       </c>
       <c r="T54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56916-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 56916-2019.png", "A 56916-2019")</f>
         <v/>
       </c>
       <c r="V54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 56916-2019.docx", "A 56916-2019")</f>
         <v/>
       </c>
       <c r="W54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 56916-2019.docx", "A 56916-2019")</f>
         <v/>
       </c>
       <c r="X54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 56916-2019.docx", "A 56916-2019")</f>
         <v/>
       </c>
       <c r="Y54">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56916-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 56916-2019.docx", "A 56916-2019")</f>
         <v/>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="S55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62168-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 62168-2019.xlsx", "A 62168-2019")</f>
         <v/>
       </c>
       <c r="T55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62168-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 62168-2019.png", "A 62168-2019")</f>
         <v/>
       </c>
       <c r="U55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 62168-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 62168-2019.png", "A 62168-2019")</f>
         <v/>
       </c>
       <c r="V55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 62168-2019.docx", "A 62168-2019")</f>
         <v/>
       </c>
       <c r="W55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 62168-2019.docx", "A 62168-2019")</f>
         <v/>
       </c>
       <c r="X55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 62168-2019.docx", "A 62168-2019")</f>
         <v/>
       </c>
       <c r="Y55">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62168-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 62168-2019.docx", "A 62168-2019")</f>
         <v/>
       </c>
     </row>
@@ -5527,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5583,27 +5583,27 @@
         </is>
       </c>
       <c r="S56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 64251-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 64251-2019.xlsx", "A 64251-2019")</f>
         <v/>
       </c>
       <c r="T56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 64251-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 64251-2019.png", "A 64251-2019")</f>
         <v/>
       </c>
       <c r="V56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 64251-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 64251-2019.docx", "A 64251-2019")</f>
         <v/>
       </c>
       <c r="W56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 64251-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 64251-2019.docx", "A 64251-2019")</f>
         <v/>
       </c>
       <c r="X56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 64251-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 64251-2019.docx", "A 64251-2019")</f>
         <v/>
       </c>
       <c r="Y56">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 64251-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 64251-2019.docx", "A 64251-2019")</f>
         <v/>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5668,27 +5668,27 @@
         </is>
       </c>
       <c r="S57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 23473-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 23473-2020.xlsx", "A 23473-2020")</f>
         <v/>
       </c>
       <c r="T57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 23473-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 23473-2020.png", "A 23473-2020")</f>
         <v/>
       </c>
       <c r="V57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 23473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 23473-2020.docx", "A 23473-2020")</f>
         <v/>
       </c>
       <c r="W57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 23473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 23473-2020.docx", "A 23473-2020")</f>
         <v/>
       </c>
       <c r="X57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 23473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 23473-2020.docx", "A 23473-2020")</f>
         <v/>
       </c>
       <c r="Y57">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 23473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 23473-2020.docx", "A 23473-2020")</f>
         <v/>
       </c>
     </row>
@@ -5702,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5758,31 +5758,31 @@
         </is>
       </c>
       <c r="S58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 39599-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 39599-2020.xlsx", "A 39599-2020")</f>
         <v/>
       </c>
       <c r="T58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 39599-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 39599-2020.png", "A 39599-2020")</f>
         <v/>
       </c>
       <c r="U58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 39599-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 39599-2020.png", "A 39599-2020")</f>
         <v/>
       </c>
       <c r="V58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 39599-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 39599-2020.docx", "A 39599-2020")</f>
         <v/>
       </c>
       <c r="W58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 39599-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 39599-2020.docx", "A 39599-2020")</f>
         <v/>
       </c>
       <c r="X58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 39599-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 39599-2020.docx", "A 39599-2020")</f>
         <v/>
       </c>
       <c r="Y58">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 39599-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 39599-2020.docx", "A 39599-2020")</f>
         <v/>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5852,27 +5852,27 @@
         </is>
       </c>
       <c r="S59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43643-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 43643-2020.xlsx", "A 43643-2020")</f>
         <v/>
       </c>
       <c r="T59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43643-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 43643-2020.png", "A 43643-2020")</f>
         <v/>
       </c>
       <c r="V59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 43643-2020.docx", "A 43643-2020")</f>
         <v/>
       </c>
       <c r="W59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 43643-2020.docx", "A 43643-2020")</f>
         <v/>
       </c>
       <c r="X59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 43643-2020.docx", "A 43643-2020")</f>
         <v/>
       </c>
       <c r="Y59">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43643-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 43643-2020.docx", "A 43643-2020")</f>
         <v/>
       </c>
     </row>
@@ -5886,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5942,27 +5942,27 @@
         </is>
       </c>
       <c r="S60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 45184-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 45184-2020.xlsx", "A 45184-2020")</f>
         <v/>
       </c>
       <c r="T60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 45184-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 45184-2020.png", "A 45184-2020")</f>
         <v/>
       </c>
       <c r="V60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 45184-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 45184-2020.docx", "A 45184-2020")</f>
         <v/>
       </c>
       <c r="W60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 45184-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 45184-2020.docx", "A 45184-2020")</f>
         <v/>
       </c>
       <c r="X60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 45184-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 45184-2020.docx", "A 45184-2020")</f>
         <v/>
       </c>
       <c r="Y60">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 45184-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 45184-2020.docx", "A 45184-2020")</f>
         <v/>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6027,27 +6027,27 @@
         </is>
       </c>
       <c r="S61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 54297-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 54297-2020.xlsx", "A 54297-2020")</f>
         <v/>
       </c>
       <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 54297-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 54297-2020.png", "A 54297-2020")</f>
         <v/>
       </c>
       <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 54297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 54297-2020.docx", "A 54297-2020")</f>
         <v/>
       </c>
       <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 54297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 54297-2020.docx", "A 54297-2020")</f>
         <v/>
       </c>
       <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 54297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 54297-2020.docx", "A 54297-2020")</f>
         <v/>
       </c>
       <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 54297-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 54297-2020.docx", "A 54297-2020")</f>
         <v/>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6117,27 +6117,27 @@
         </is>
       </c>
       <c r="S62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 30881-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 30881-2021.xlsx", "A 30881-2021")</f>
         <v/>
       </c>
       <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 30881-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 30881-2021.png", "A 30881-2021")</f>
         <v/>
       </c>
       <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 30881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 30881-2021.docx", "A 30881-2021")</f>
         <v/>
       </c>
       <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 30881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 30881-2021.docx", "A 30881-2021")</f>
         <v/>
       </c>
       <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 30881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 30881-2021.docx", "A 30881-2021")</f>
         <v/>
       </c>
       <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 30881-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 30881-2021.docx", "A 30881-2021")</f>
         <v/>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6207,27 +6207,27 @@
         </is>
       </c>
       <c r="S63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 40779-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 40779-2021.xlsx", "A 40779-2021")</f>
         <v/>
       </c>
       <c r="T63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 40779-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 40779-2021.png", "A 40779-2021")</f>
         <v/>
       </c>
       <c r="V63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 40779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 40779-2021.docx", "A 40779-2021")</f>
         <v/>
       </c>
       <c r="W63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 40779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 40779-2021.docx", "A 40779-2021")</f>
         <v/>
       </c>
       <c r="X63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 40779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 40779-2021.docx", "A 40779-2021")</f>
         <v/>
       </c>
       <c r="Y63">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 40779-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 40779-2021.docx", "A 40779-2021")</f>
         <v/>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6297,27 +6297,27 @@
         </is>
       </c>
       <c r="S64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49754-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 49754-2021.xlsx", "A 49754-2021")</f>
         <v/>
       </c>
       <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49754-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 49754-2021.png", "A 49754-2021")</f>
         <v/>
       </c>
       <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49754-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 49754-2021.docx", "A 49754-2021")</f>
         <v/>
       </c>
       <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49754-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 49754-2021.docx", "A 49754-2021")</f>
         <v/>
       </c>
       <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49754-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 49754-2021.docx", "A 49754-2021")</f>
         <v/>
       </c>
       <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49754-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 49754-2021.docx", "A 49754-2021")</f>
         <v/>
       </c>
     </row>
@@ -6331,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6387,27 +6387,27 @@
         </is>
       </c>
       <c r="S65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 13647-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 13647-2022.xlsx", "A 13647-2022")</f>
         <v/>
       </c>
       <c r="T65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 13647-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 13647-2022.png", "A 13647-2022")</f>
         <v/>
       </c>
       <c r="V65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 13647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 13647-2022.docx", "A 13647-2022")</f>
         <v/>
       </c>
       <c r="W65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 13647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 13647-2022.docx", "A 13647-2022")</f>
         <v/>
       </c>
       <c r="X65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 13647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 13647-2022.docx", "A 13647-2022")</f>
         <v/>
       </c>
       <c r="Y65">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 13647-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 13647-2022.docx", "A 13647-2022")</f>
         <v/>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6477,27 +6477,27 @@
         </is>
       </c>
       <c r="S66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 19396-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 19396-2022.xlsx", "A 19396-2022")</f>
         <v/>
       </c>
       <c r="T66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 19396-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 19396-2022.png", "A 19396-2022")</f>
         <v/>
       </c>
       <c r="V66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 19396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 19396-2022.docx", "A 19396-2022")</f>
         <v/>
       </c>
       <c r="W66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 19396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 19396-2022.docx", "A 19396-2022")</f>
         <v/>
       </c>
       <c r="X66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 19396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 19396-2022.docx", "A 19396-2022")</f>
         <v/>
       </c>
       <c r="Y66">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 19396-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 19396-2022.docx", "A 19396-2022")</f>
         <v/>
       </c>
     </row>
@@ -6511,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6567,27 +6567,27 @@
         </is>
       </c>
       <c r="S67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 44768-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 44768-2022.xlsx", "A 44768-2022")</f>
         <v/>
       </c>
       <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 44768-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 44768-2022.png", "A 44768-2022")</f>
         <v/>
       </c>
       <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 44768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 44768-2022.docx", "A 44768-2022")</f>
         <v/>
       </c>
       <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 44768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 44768-2022.docx", "A 44768-2022")</f>
         <v/>
       </c>
       <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 44768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 44768-2022.docx", "A 44768-2022")</f>
         <v/>
       </c>
       <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 44768-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 44768-2022.docx", "A 44768-2022")</f>
         <v/>
       </c>
     </row>
@@ -6601,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6657,27 +6657,27 @@
         </is>
       </c>
       <c r="S68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 51389-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 51389-2022.xlsx", "A 51389-2022")</f>
         <v/>
       </c>
       <c r="T68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 51389-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 51389-2022.png", "A 51389-2022")</f>
         <v/>
       </c>
       <c r="V68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 51389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 51389-2022.docx", "A 51389-2022")</f>
         <v/>
       </c>
       <c r="W68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 51389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 51389-2022.docx", "A 51389-2022")</f>
         <v/>
       </c>
       <c r="X68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 51389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 51389-2022.docx", "A 51389-2022")</f>
         <v/>
       </c>
       <c r="Y68">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 51389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 51389-2022.docx", "A 51389-2022")</f>
         <v/>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6747,27 +6747,27 @@
         </is>
       </c>
       <c r="S69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 61496-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 61496-2022.xlsx", "A 61496-2022")</f>
         <v/>
       </c>
       <c r="T69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 61496-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 61496-2022.png", "A 61496-2022")</f>
         <v/>
       </c>
       <c r="V69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 61496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 61496-2022.docx", "A 61496-2022")</f>
         <v/>
       </c>
       <c r="W69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 61496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 61496-2022.docx", "A 61496-2022")</f>
         <v/>
       </c>
       <c r="X69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 61496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 61496-2022.docx", "A 61496-2022")</f>
         <v/>
       </c>
       <c r="Y69">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 61496-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 61496-2022.docx", "A 61496-2022")</f>
         <v/>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6837,27 +6837,27 @@
         </is>
       </c>
       <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 6239-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 6239-2023.xlsx", "A 6239-2023")</f>
         <v/>
       </c>
       <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 6239-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 6239-2023.png", "A 6239-2023")</f>
         <v/>
       </c>
       <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 6239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 6239-2023.docx", "A 6239-2023")</f>
         <v/>
       </c>
       <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 6239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 6239-2023.docx", "A 6239-2023")</f>
         <v/>
       </c>
       <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 6239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 6239-2023.docx", "A 6239-2023")</f>
         <v/>
       </c>
       <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 6239-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 6239-2023.docx", "A 6239-2023")</f>
         <v/>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6922,27 +6922,27 @@
         </is>
       </c>
       <c r="S71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 11208-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 11208-2023.xlsx", "A 11208-2023")</f>
         <v/>
       </c>
       <c r="T71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 11208-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 11208-2023.png", "A 11208-2023")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 11208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 11208-2023.docx", "A 11208-2023")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 11208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 11208-2023.docx", "A 11208-2023")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 11208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 11208-2023.docx", "A 11208-2023")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 11208-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 11208-2023.docx", "A 11208-2023")</f>
         <v/>
       </c>
     </row>
@@ -6956,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7012,27 +7012,27 @@
         </is>
       </c>
       <c r="S72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 27804-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/artfynd/A 27804-2023.xlsx", "A 27804-2023")</f>
         <v/>
       </c>
       <c r="T72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 27804-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/kartor/A 27804-2023.png", "A 27804-2023")</f>
         <v/>
       </c>
       <c r="V72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 27804-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 27804-2023.docx", "A 27804-2023")</f>
         <v/>
       </c>
       <c r="W72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 27804-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 27804-2023.docx", "A 27804-2023")</f>
         <v/>
       </c>
       <c r="X72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 27804-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 27804-2023.docx", "A 27804-2023")</f>
         <v/>
       </c>
       <c r="Y72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 27804-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 27804-2023.docx", "A 27804-2023")</f>
         <v/>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13950,23 +13950,23 @@
       </c>
       <c r="R189" s="2" t="inlineStr"/>
       <c r="U189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 28223-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 28223-2019.png", "A 28223-2019")</f>
         <v/>
       </c>
       <c r="V189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 28223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 28223-2019.docx", "A 28223-2019")</f>
         <v/>
       </c>
       <c r="W189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 28223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 28223-2019.docx", "A 28223-2019")</f>
         <v/>
       </c>
       <c r="X189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 28223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 28223-2019.docx", "A 28223-2019")</f>
         <v/>
       </c>
       <c r="Y189">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 28223-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 28223-2019.docx", "A 28223-2019")</f>
         <v/>
       </c>
     </row>
@@ -13980,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21170,23 +21170,23 @@
       </c>
       <c r="R309" s="2" t="inlineStr"/>
       <c r="U309">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 14325-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 14325-2020.png", "A 14325-2020")</f>
         <v/>
       </c>
       <c r="V309">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 14325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 14325-2020.docx", "A 14325-2020")</f>
         <v/>
       </c>
       <c r="W309">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 14325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 14325-2020.docx", "A 14325-2020")</f>
         <v/>
       </c>
       <c r="X309">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 14325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 14325-2020.docx", "A 14325-2020")</f>
         <v/>
       </c>
       <c r="Y309">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 14325-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 14325-2020.docx", "A 14325-2020")</f>
         <v/>
       </c>
     </row>
@@ -21200,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27242,23 +27242,23 @@
       </c>
       <c r="R410" s="2" t="inlineStr"/>
       <c r="U410">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 66696-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/knärot/A 66696-2020.png", "A 66696-2020")</f>
         <v/>
       </c>
       <c r="V410">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 66696-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomål/A 66696-2020.docx", "A 66696-2020")</f>
         <v/>
       </c>
       <c r="W410">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 66696-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/klagomålsmail/A 66696-2020.docx", "A 66696-2020")</f>
         <v/>
       </c>
       <c r="X410">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 66696-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsyn/A 66696-2020.docx", "A 66696-2020")</f>
         <v/>
       </c>
       <c r="Y410">
-        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 66696-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_BODEN/tillsynsmail/A 66696-2020.docx", "A 66696-2020")</f>
         <v/>
       </c>
     </row>
@@ -27272,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36567,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36877,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36934,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36991,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37048,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37105,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38394,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38746,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38922,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40707,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41441,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43694,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45243,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45414,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45642,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47055,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y750"/>
+  <dimension ref="A1:Y751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43322</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4714,7 +4714,7 @@
         <v>43361</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4804,7 +4804,7 @@
         <v>43374</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         <v>43397</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         <v>43427</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43579</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5164,7 +5164,7 @@
         <v>43665</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43752</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>43766</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>43787</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>43797</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>43966</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>44064</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44082</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         <v>44088</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>44365</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>44421</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44455</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>44648</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44692</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>44840</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6691,7 +6691,7 @@
         <v>44910</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>44964</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6871,7 +6871,7 @@
         <v>44992</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
         <v>45098</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7046,7 +7046,7 @@
         <v>43333</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>43349</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>43355</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>43361</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>43363</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>43364</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>43364</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>43368</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43368</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>43368</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>43369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>43371</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>43374</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>43377</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>43378</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43381</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43381</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43381</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>43381</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>43382</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43383</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43384</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43384</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43385</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43387</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8501,7 +8501,7 @@
         <v>43389</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8558,7 +8558,7 @@
         <v>43389</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8615,7 +8615,7 @@
         <v>43390</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8672,7 +8672,7 @@
         <v>43390</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8729,7 +8729,7 @@
         <v>43395</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>43395</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>43395</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43396</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>43398</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43399</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43399</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43400</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>43402</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>43402</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
         <v>43404</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>43404</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>43411</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>43419</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>43423</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9629,7 +9629,7 @@
         <v>43425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9686,7 +9686,7 @@
         <v>43427</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9743,7 +9743,7 @@
         <v>43427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9805,7 +9805,7 @@
         <v>43427</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9867,7 +9867,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9929,7 +9929,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9986,7 +9986,7 @@
         <v>43430</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         <v>43431</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         <v>43433</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10167,7 +10167,7 @@
         <v>43433</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10224,7 +10224,7 @@
         <v>43433</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10281,7 +10281,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10338,7 +10338,7 @@
         <v>43436</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10395,7 +10395,7 @@
         <v>43438</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         <v>43438</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         <v>43438</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10628,7 +10628,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10685,7 +10685,7 @@
         <v>43439</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>43440</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>43440</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10856,7 +10856,7 @@
         <v>43444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10913,7 +10913,7 @@
         <v>43445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43448</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43448</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43451</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         <v>43462</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         <v>43467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         <v>43467</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         <v>43475</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
         <v>43483</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11498,7 +11498,7 @@
         <v>43495</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>43495</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43495</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43501</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11746,7 +11746,7 @@
         <v>43501</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11808,7 +11808,7 @@
         <v>43501</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>43509</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11932,7 +11932,7 @@
         <v>43510</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11994,7 +11994,7 @@
         <v>43510</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12056,7 +12056,7 @@
         <v>43510</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12113,7 +12113,7 @@
         <v>43515</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>43524</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12237,7 +12237,7 @@
         <v>43531</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12294,7 +12294,7 @@
         <v>43540</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12351,7 +12351,7 @@
         <v>43545</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>43545</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12475,7 +12475,7 @@
         <v>43558</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>43563</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>43565</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12656,7 +12656,7 @@
         <v>43567</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>43573</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>43573</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>43579</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>43584</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>43586</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>43591</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13065,7 +13065,7 @@
         <v>43591</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43591</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13303,7 +13303,7 @@
         <v>43600</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13365,7 +13365,7 @@
         <v>43602</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>43602</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>43609</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>43609</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>43616</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>43616</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43616</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43621</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13898,7 +13898,7 @@
         <v>43621</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13980,7 +13980,7 @@
         <v>43621</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>43627</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14104,7 +14104,7 @@
         <v>43628</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14161,7 +14161,7 @@
         <v>43628</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14218,7 +14218,7 @@
         <v>43630</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14280,7 +14280,7 @@
         <v>43636</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14337,7 +14337,7 @@
         <v>43636</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14394,7 +14394,7 @@
         <v>43636</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14456,7 +14456,7 @@
         <v>43639</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14513,7 +14513,7 @@
         <v>43640</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14570,7 +14570,7 @@
         <v>43641</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14627,7 +14627,7 @@
         <v>43643</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43644</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>43647</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>43650</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14870,7 +14870,7 @@
         <v>43650</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14927,7 +14927,7 @@
         <v>43654</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14989,7 +14989,7 @@
         <v>43655</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15051,7 +15051,7 @@
         <v>43657</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15108,7 +15108,7 @@
         <v>43657</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>43661</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>43661</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>43663</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15351,7 +15351,7 @@
         <v>43663</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>43663</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>43664</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43678</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15594,7 +15594,7 @@
         <v>43685</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15656,7 +15656,7 @@
         <v>43689</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>43689</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15770,7 +15770,7 @@
         <v>43692</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43692</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>43692</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>43696</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>43698</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16075,7 +16075,7 @@
         <v>43703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16137,7 +16137,7 @@
         <v>43703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>43704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16261,7 +16261,7 @@
         <v>43707</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16323,7 +16323,7 @@
         <v>43712</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16385,7 +16385,7 @@
         <v>43713</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16442,7 +16442,7 @@
         <v>43719</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>43719</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>43719</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16752,7 +16752,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16814,7 +16814,7 @@
         <v>43720</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16876,7 +16876,7 @@
         <v>43721</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16938,7 +16938,7 @@
         <v>43725</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17000,7 +17000,7 @@
         <v>43725</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17057,7 +17057,7 @@
         <v>43727</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17114,7 +17114,7 @@
         <v>43727</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17176,7 +17176,7 @@
         <v>43727</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17238,7 +17238,7 @@
         <v>43732</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17295,7 +17295,7 @@
         <v>43732</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17352,7 +17352,7 @@
         <v>43732</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>43733</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>43738</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>43742</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17595,7 +17595,7 @@
         <v>43742</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17652,7 +17652,7 @@
         <v>43742</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17709,7 +17709,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17766,7 +17766,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17823,7 +17823,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17880,7 +17880,7 @@
         <v>43745</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>43753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17999,7 +17999,7 @@
         <v>43754</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>43754</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>43759</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18185,7 +18185,7 @@
         <v>43759</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18242,7 +18242,7 @@
         <v>43760</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>43760</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18366,7 +18366,7 @@
         <v>43760</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18428,7 +18428,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18490,7 +18490,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18552,7 +18552,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18614,7 +18614,7 @@
         <v>43762</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>43762</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18738,7 +18738,7 @@
         <v>43763</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18800,7 +18800,7 @@
         <v>43766</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18862,7 +18862,7 @@
         <v>43766</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18919,7 +18919,7 @@
         <v>43770</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18976,7 +18976,7 @@
         <v>43773</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19038,7 +19038,7 @@
         <v>43774</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19100,7 +19100,7 @@
         <v>43774</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>43777</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19219,7 +19219,7 @@
         <v>43781</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19276,7 +19276,7 @@
         <v>43781</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19333,7 +19333,7 @@
         <v>43782</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19395,7 +19395,7 @@
         <v>43784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19452,7 +19452,7 @@
         <v>43784</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         <v>43787</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19571,7 +19571,7 @@
         <v>43794</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19628,7 +19628,7 @@
         <v>43797</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>43797</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19752,7 +19752,7 @@
         <v>43801</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19814,7 +19814,7 @@
         <v>43802</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19871,7 +19871,7 @@
         <v>43804</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19933,7 +19933,7 @@
         <v>43805</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19990,7 +19990,7 @@
         <v>43807</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20047,7 +20047,7 @@
         <v>43809</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20104,7 +20104,7 @@
         <v>43810</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20166,7 +20166,7 @@
         <v>43816</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20223,7 +20223,7 @@
         <v>43819</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20280,7 +20280,7 @@
         <v>43843</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20342,7 +20342,7 @@
         <v>43850</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         <v>43850</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>43853</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>43854</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>43859</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>43865</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>43874</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>43887</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>43896</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>43901</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>43901</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>43901</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21056,7 +21056,7 @@
         <v>43905</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>43907</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>43922</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>43927</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>43927</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21381,7 +21381,7 @@
         <v>43936</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21438,7 +21438,7 @@
         <v>43958</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21495,7 +21495,7 @@
         <v>43964</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21552,7 +21552,7 @@
         <v>43964</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21609,7 +21609,7 @@
         <v>43965</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21671,7 +21671,7 @@
         <v>43965</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>43971</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21795,7 +21795,7 @@
         <v>43971</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21857,7 +21857,7 @@
         <v>43979</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21914,7 +21914,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21976,7 +21976,7 @@
         <v>43983</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22038,7 +22038,7 @@
         <v>43983</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22100,7 +22100,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22162,7 +22162,7 @@
         <v>43990</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22219,7 +22219,7 @@
         <v>43994</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>43997</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22343,7 +22343,7 @@
         <v>43998</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22405,7 +22405,7 @@
         <v>44004</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22467,7 +22467,7 @@
         <v>44005</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22524,7 +22524,7 @@
         <v>44005</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22581,7 +22581,7 @@
         <v>44005</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22638,7 +22638,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22700,7 +22700,7 @@
         <v>44007</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22757,7 +22757,7 @@
         <v>44007</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22814,7 +22814,7 @@
         <v>44007</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22871,7 +22871,7 @@
         <v>44008</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22928,7 +22928,7 @@
         <v>44013</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22990,7 +22990,7 @@
         <v>44015</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44015</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23104,7 +23104,7 @@
         <v>44020</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23166,7 +23166,7 @@
         <v>44021</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23228,7 +23228,7 @@
         <v>44022</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23290,7 +23290,7 @@
         <v>44029</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23352,7 +23352,7 @@
         <v>44029</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23414,7 +23414,7 @@
         <v>44029</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23476,7 +23476,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44035</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44035</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44035</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23786,7 +23786,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23848,7 +23848,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44046</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44047</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44050</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44050</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44053</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>44054</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24401,7 +24401,7 @@
         <v>44057</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44062</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24515,7 +24515,7 @@
         <v>44062</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44064</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24634,7 +24634,7 @@
         <v>44067</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24691,7 +24691,7 @@
         <v>44070</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24753,7 +24753,7 @@
         <v>44075</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44077</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24872,7 +24872,7 @@
         <v>44077</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44090</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44092</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>44099</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44110</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44110</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25229,7 +25229,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25353,7 +25353,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25410,7 +25410,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25472,7 +25472,7 @@
         <v>44111</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25534,7 +25534,7 @@
         <v>44116</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25591,7 +25591,7 @@
         <v>44119</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>44120</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>44120</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25767,7 +25767,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25824,7 +25824,7 @@
         <v>44124</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25881,7 +25881,7 @@
         <v>44125</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25943,7 +25943,7 @@
         <v>44126</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26005,7 +26005,7 @@
         <v>44127</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26062,7 +26062,7 @@
         <v>44130</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>44138</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44143</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>44151</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>44151</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26362,7 +26362,7 @@
         <v>44153</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26424,7 +26424,7 @@
         <v>44154</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26481,7 +26481,7 @@
         <v>44158</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>44158</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26595,7 +26595,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26652,7 +26652,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>44164</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26771,7 +26771,7 @@
         <v>44165</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26833,7 +26833,7 @@
         <v>44165</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26890,7 +26890,7 @@
         <v>44168</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26952,7 +26952,7 @@
         <v>44168</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27009,7 +27009,7 @@
         <v>44173</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27071,7 +27071,7 @@
         <v>44173</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44174</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27195,7 +27195,7 @@
         <v>44174</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>44182</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>44182</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27386,7 +27386,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>44187</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27614,7 +27614,7 @@
         <v>44204</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27671,7 +27671,7 @@
         <v>44207</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27728,7 +27728,7 @@
         <v>44211</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27785,7 +27785,7 @@
         <v>44215</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27842,7 +27842,7 @@
         <v>44216</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27899,7 +27899,7 @@
         <v>44216</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27956,7 +27956,7 @@
         <v>44217</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28013,7 +28013,7 @@
         <v>44217</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28127,7 +28127,7 @@
         <v>44223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         <v>44223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44238</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28298,7 +28298,7 @@
         <v>44248</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28355,7 +28355,7 @@
         <v>44248</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28412,7 +28412,7 @@
         <v>44274</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28469,7 +28469,7 @@
         <v>44274</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28526,7 +28526,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28583,7 +28583,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28640,7 +28640,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28697,7 +28697,7 @@
         <v>44284</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28759,7 +28759,7 @@
         <v>44286</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28816,7 +28816,7 @@
         <v>44286</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28873,7 +28873,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28930,7 +28930,7 @@
         <v>44292</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28987,7 +28987,7 @@
         <v>44293</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29049,7 +29049,7 @@
         <v>44298</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29106,7 +29106,7 @@
         <v>44299</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29163,7 +29163,7 @@
         <v>44313</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29220,7 +29220,7 @@
         <v>44313</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29277,7 +29277,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29334,7 +29334,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>44322</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44330</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44333</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29619,7 +29619,7 @@
         <v>44350</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29676,7 +29676,7 @@
         <v>44350</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29733,7 +29733,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29790,7 +29790,7 @@
         <v>44356</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29847,7 +29847,7 @@
         <v>44356</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29961,7 +29961,7 @@
         <v>44358</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30023,7 +30023,7 @@
         <v>44358</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30080,7 +30080,7 @@
         <v>44369</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>44374</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>44378</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>44378</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30365,7 +30365,7 @@
         <v>44386</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30422,7 +30422,7 @@
         <v>44391</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30479,7 +30479,7 @@
         <v>44391</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30536,7 +30536,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30593,7 +30593,7 @@
         <v>44413</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30655,7 +30655,7 @@
         <v>44414</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30712,7 +30712,7 @@
         <v>44414</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30769,7 +30769,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30826,7 +30826,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30883,7 +30883,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30940,7 +30940,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30997,7 +30997,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31054,7 +31054,7 @@
         <v>44417</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31111,7 +31111,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31168,7 +31168,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31230,7 +31230,7 @@
         <v>44438</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31287,7 +31287,7 @@
         <v>44438</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31344,7 +31344,7 @@
         <v>44439</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31401,7 +31401,7 @@
         <v>44439</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44441</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31515,7 +31515,7 @@
         <v>44445</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44445</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>44447</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44463</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31815,7 +31815,7 @@
         <v>44464</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31872,7 +31872,7 @@
         <v>44464</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31929,7 +31929,7 @@
         <v>44467</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44469</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>44469</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32110,7 +32110,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32172,7 +32172,7 @@
         <v>44473</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32234,7 +32234,7 @@
         <v>44474</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32291,7 +32291,7 @@
         <v>44474</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32348,7 +32348,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32410,7 +32410,7 @@
         <v>44476</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32472,7 +32472,7 @@
         <v>44477</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
         <v>44480</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>44480</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44484</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32705,7 +32705,7 @@
         <v>44484</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32767,7 +32767,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32824,7 +32824,7 @@
         <v>44487</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32881,7 +32881,7 @@
         <v>44487</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32938,7 +32938,7 @@
         <v>44489</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32995,7 +32995,7 @@
         <v>44489</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33052,7 +33052,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>44490</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>44491</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44500</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>44505</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>44509</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>44515</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>44524</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44529</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>44529</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44530</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44530</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44532</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>44552</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>44558</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>44565</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34326,7 +34326,7 @@
         <v>44565</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34383,7 +34383,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34440,7 +34440,7 @@
         <v>44566</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34497,7 +34497,7 @@
         <v>44566</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34554,7 +34554,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34611,7 +34611,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34668,7 +34668,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34725,7 +34725,7 @@
         <v>44568</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>44573</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>44573</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34906,7 +34906,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>44577</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>44585</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>44596</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35201,7 +35201,7 @@
         <v>44609</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35258,7 +35258,7 @@
         <v>44609</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35543,7 +35543,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35600,7 +35600,7 @@
         <v>44617</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35657,7 +35657,7 @@
         <v>44617</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35714,7 +35714,7 @@
         <v>44628</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35771,7 +35771,7 @@
         <v>44628</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35828,7 +35828,7 @@
         <v>44635</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35890,7 +35890,7 @@
         <v>44642</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35947,7 +35947,7 @@
         <v>44642</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36009,7 +36009,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>44648</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>44648</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36195,7 +36195,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36257,7 +36257,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36381,7 +36381,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36505,7 +36505,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36567,7 +36567,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36629,7 +36629,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36691,7 +36691,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36753,7 +36753,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36815,7 +36815,7 @@
         <v>44651</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36877,7 +36877,7 @@
         <v>44657</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36934,7 +36934,7 @@
         <v>44657</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36991,7 +36991,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37048,7 +37048,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37105,7 +37105,7 @@
         <v>44663</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37167,7 +37167,7 @@
         <v>44671</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         <v>44671</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37281,7 +37281,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37338,7 +37338,7 @@
         <v>44673</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37395,7 +37395,7 @@
         <v>44673</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37452,7 +37452,7 @@
         <v>44677</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37509,7 +37509,7 @@
         <v>44678</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37571,7 +37571,7 @@
         <v>44678</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37633,7 +37633,7 @@
         <v>44706</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37690,7 +37690,7 @@
         <v>44715</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37752,7 +37752,7 @@
         <v>44721</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37809,7 +37809,7 @@
         <v>44722</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37866,7 +37866,7 @@
         <v>44727</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37923,7 +37923,7 @@
         <v>44729</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37980,7 +37980,7 @@
         <v>44734</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38037,7 +38037,7 @@
         <v>44735</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38099,7 +38099,7 @@
         <v>44740</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38156,7 +38156,7 @@
         <v>44741</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38218,7 +38218,7 @@
         <v>44743</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38275,7 +38275,7 @@
         <v>44743</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38337,7 +38337,7 @@
         <v>44747</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38394,7 +38394,7 @@
         <v>44749</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38451,7 +38451,7 @@
         <v>44755</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38513,7 +38513,7 @@
         <v>44788</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38570,7 +38570,7 @@
         <v>44789</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38627,7 +38627,7 @@
         <v>44795</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38684,7 +38684,7 @@
         <v>44795</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38746,7 +38746,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38808,7 +38808,7 @@
         <v>44796</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38865,7 +38865,7 @@
         <v>44796</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38922,7 +38922,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38979,7 +38979,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39036,7 +39036,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39093,7 +39093,7 @@
         <v>44797</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39155,7 +39155,7 @@
         <v>44798</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39217,7 +39217,7 @@
         <v>44798</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39274,7 +39274,7 @@
         <v>44799</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39336,7 +39336,7 @@
         <v>44809</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39398,7 +39398,7 @@
         <v>44812</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39455,7 +39455,7 @@
         <v>44815</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39517,7 +39517,7 @@
         <v>44818</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>44820</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>44823</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>44830</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>44831</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39817,7 +39817,7 @@
         <v>44831</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39879,7 +39879,7 @@
         <v>44832</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39936,7 +39936,7 @@
         <v>44832</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>44833</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>44833</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>44838</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>44840</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40231,7 +40231,7 @@
         <v>44844</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40288,7 +40288,7 @@
         <v>44844</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40345,7 +40345,7 @@
         <v>44847</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40402,7 +40402,7 @@
         <v>44848</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40459,7 +40459,7 @@
         <v>44852</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40521,7 +40521,7 @@
         <v>44853</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40583,7 +40583,7 @@
         <v>44853</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40645,7 +40645,7 @@
         <v>44854</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40707,7 +40707,7 @@
         <v>44859</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40769,7 +40769,7 @@
         <v>44862</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40831,7 +40831,7 @@
         <v>44865</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40893,7 +40893,7 @@
         <v>44867</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40955,7 +40955,7 @@
         <v>44868</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41012,7 +41012,7 @@
         <v>44874</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41074,7 +41074,7 @@
         <v>44874</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>44881</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41193,7 +41193,7 @@
         <v>44883</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44883</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41317,7 +41317,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41379,7 +41379,7 @@
         <v>44887</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41441,7 +41441,7 @@
         <v>44887</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41503,7 +41503,7 @@
         <v>44889</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>44897</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41617,7 +41617,7 @@
         <v>44897</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41674,7 +41674,7 @@
         <v>44900</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>44900</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>44901</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>44901</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>44903</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>44903</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>44908</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>44908</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>44910</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42259,7 +42259,7 @@
         <v>44911</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42316,7 +42316,7 @@
         <v>44911</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42373,7 +42373,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42430,7 +42430,7 @@
         <v>44917</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42487,7 +42487,7 @@
         <v>44924</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42544,7 +42544,7 @@
         <v>44925</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42601,7 +42601,7 @@
         <v>44931</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42658,7 +42658,7 @@
         <v>44935</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42715,7 +42715,7 @@
         <v>44943</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>44946</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>44956</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>44963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>44964</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43005,7 +43005,7 @@
         <v>44966</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>44970</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43119,7 +43119,7 @@
         <v>44979</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43181,7 +43181,7 @@
         <v>44981</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>44983</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43295,7 +43295,7 @@
         <v>44994</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43352,7 +43352,7 @@
         <v>44994</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43409,7 +43409,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43466,7 +43466,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43523,7 +43523,7 @@
         <v>45001</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43580,7 +43580,7 @@
         <v>45005</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43637,7 +43637,7 @@
         <v>45005</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43694,7 +43694,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43751,7 +43751,7 @@
         <v>45006</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43808,7 +43808,7 @@
         <v>45013</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43865,7 +43865,7 @@
         <v>45013</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43979,7 +43979,7 @@
         <v>45022</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44036,7 +44036,7 @@
         <v>45028</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44093,7 +44093,7 @@
         <v>45035</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44150,7 +44150,7 @@
         <v>45044</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44212,7 +44212,7 @@
         <v>45049</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44269,7 +44269,7 @@
         <v>45049</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44326,7 +44326,7 @@
         <v>45051</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44383,7 +44383,7 @@
         <v>45054</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45054</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45055</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>45056</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45070</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44787,7 +44787,7 @@
         <v>45076</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44844,7 +44844,7 @@
         <v>45077</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44901,7 +44901,7 @@
         <v>45077</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44958,7 +44958,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45015,7 +45015,7 @@
         <v>45079</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45085</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45085</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45243,7 +45243,7 @@
         <v>45091</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45300,7 +45300,7 @@
         <v>45091</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45357,7 +45357,7 @@
         <v>45099</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45414,7 +45414,7 @@
         <v>45099</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45471,7 +45471,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>45102</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45585,7 +45585,7 @@
         <v>45103</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45642,7 +45642,7 @@
         <v>45104</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45704,7 +45704,7 @@
         <v>45110</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45766,7 +45766,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45890,7 +45890,7 @@
         <v>45113</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45952,7 +45952,7 @@
         <v>45120</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46009,7 +46009,7 @@
         <v>45124</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46066,7 +46066,7 @@
         <v>45139</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         <v>45152</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46185,7 +46185,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46242,7 +46242,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46299,7 +46299,7 @@
         <v>45153</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46356,7 +46356,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46413,7 +46413,7 @@
         <v>45160</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46470,7 +46470,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46527,7 +46527,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46584,7 +46584,7 @@
         <v>45161</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46646,7 +46646,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46708,7 +46708,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46770,7 +46770,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46827,7 +46827,7 @@
         <v>45162</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46941,7 +46941,7 @@
         <v>45163</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46998,7 +46998,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47045,7 +47045,7 @@
       </c>
       <c r="R749" s="2" t="inlineStr"/>
     </row>
-    <row r="750">
+    <row r="750" ht="15" customHeight="1">
       <c r="A750" t="inlineStr">
         <is>
           <t>A 39440-2023</t>
@@ -47055,7 +47055,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47101,6 +47101,68 @@
         <v>0</v>
       </c>
       <c r="R750" s="2" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>A 43648-2023</t>
+        </is>
+      </c>
+      <c r="B751" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C751" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>BODEN</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G751" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="n">
+        <v>0</v>
+      </c>
+      <c r="J751" t="n">
+        <v>0</v>
+      </c>
+      <c r="K751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N751" t="n">
+        <v>0</v>
+      </c>
+      <c r="O751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R751" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45188</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43322</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43427</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43665</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43752</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43766</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43797</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43966</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44062</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44064</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44082</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44124</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>44692</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44840</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44869</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>44910</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44964</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44992</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>45104</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43349</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43355</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43363</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43364</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43364</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43368</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43368</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43368</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43369</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43374</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43377</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43378</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43381</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43381</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43381</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43381</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43382</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43383</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43384</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43385</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43387</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43389</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43389</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43390</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43390</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43395</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>43395</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43396</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43400</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>43402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>43402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43404</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43404</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43411</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>43427</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43431</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43433</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43433</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43436</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43438</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43438</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43439</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43440</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43448</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43448</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43451</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43467</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43467</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43495</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43495</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43501</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>43501</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43501</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43509</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>43510</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43510</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43510</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43524</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43531</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43540</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>43545</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43545</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43558</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43567</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>43573</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>43579</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43584</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43586</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>43591</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>43591</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43591</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43598</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43600</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43602</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43602</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43614</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43616</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43616</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43616</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43621</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43621</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43627</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>43628</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>43630</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43636</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>43636</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>43639</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43644</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43650</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43655</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43661</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43661</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43663</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>43663</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43663</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43664</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>43678</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43689</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>43689</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>43692</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43692</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>43692</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>43696</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43698</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>43703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>43703</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>43704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43707</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>43713</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43719</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43720</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43721</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43725</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43725</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43727</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43727</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>43727</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43732</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43732</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43732</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>43733</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43738</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43742</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>43742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>43742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>43745</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43753</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43754</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43754</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43759</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>43760</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>43760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43760</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>43762</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43762</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43763</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>43766</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>43766</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>43770</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>43773</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43774</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43774</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>43777</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>43781</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>43781</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>43782</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43784</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>43784</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>43787</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43794</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43797</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>43797</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>43801</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>43802</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>43804</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>43805</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>43807</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>43809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>43810</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>43816</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>43819</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>43843</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>43850</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>43850</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>43853</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>43865</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>43887</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>43896</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>43901</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43901</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43901</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43905</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43907</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>43927</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>43927</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>43936</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>43958</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>43964</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>43964</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43971</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>43971</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43979</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>43983</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>43983</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>43990</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>43997</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>43998</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44004</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>44007</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44007</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44007</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44008</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44015</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44020</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44022</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44029</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>44029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>44029</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44035</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44053</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44054</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>44057</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>44062</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>44064</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44067</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>44070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>44075</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44090</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44092</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44099</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44110</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44110</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44116</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44120</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44120</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44126</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44127</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44130</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44143</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44151</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44151</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>44153</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44158</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44164</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44165</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44165</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44173</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44173</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44174</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44174</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>44182</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44187</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44204</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44211</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44217</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44217</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>44223</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>44238</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>44248</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>44248</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>44274</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>44274</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44284</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44286</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44286</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44292</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44298</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44299</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>44313</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44313</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44322</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44330</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>44333</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>44350</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>44350</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44356</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>44358</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44358</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44369</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44374</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44378</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44378</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44386</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44391</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30716,7 +30716,7 @@
         <v>44391</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         <v>44413</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>44414</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>44414</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44417</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>44423</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44426</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>44438</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>44438</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>44439</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31638,7 +31638,7 @@
         <v>44439</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>44441</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31871,7 +31871,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31928,7 +31928,7 @@
         <v>44447</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>44463</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32052,7 +32052,7 @@
         <v>44464</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>44464</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
         <v>44467</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32223,7 +32223,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44469</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44469</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44473</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44474</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44474</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44476</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44477</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44480</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44480</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44484</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>44489</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44490</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44491</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44500</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44505</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44524</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44529</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44529</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44530</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44530</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44532</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44552</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44558</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44565</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44565</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44566</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44566</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44568</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35143,7 +35143,7 @@
         <v>44573</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>44577</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>44585</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>44593</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35438,7 +35438,7 @@
         <v>44609</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35495,7 +35495,7 @@
         <v>44609</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35552,7 +35552,7 @@
         <v>44609</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35609,7 +35609,7 @@
         <v>44609</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>44609</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>44609</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35780,7 +35780,7 @@
         <v>44609</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35837,7 +35837,7 @@
         <v>44617</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35894,7 +35894,7 @@
         <v>44617</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35951,7 +35951,7 @@
         <v>44628</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>44628</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -36065,7 +36065,7 @@
         <v>44635</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36127,7 +36127,7 @@
         <v>44642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36184,7 +36184,7 @@
         <v>44642</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36246,7 +36246,7 @@
         <v>44642</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36308,7 +36308,7 @@
         <v>44648</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36370,7 +36370,7 @@
         <v>44648</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36432,7 +36432,7 @@
         <v>44648</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36494,7 +36494,7 @@
         <v>44648</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36556,7 +36556,7 @@
         <v>44648</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>44648</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36680,7 +36680,7 @@
         <v>44648</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>44648</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44648</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>44648</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36928,7 +36928,7 @@
         <v>44648</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36990,7 +36990,7 @@
         <v>44648</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37052,7 +37052,7 @@
         <v>44651</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -37114,7 +37114,7 @@
         <v>44657</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37171,7 +37171,7 @@
         <v>44657</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37228,7 +37228,7 @@
         <v>44657</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37285,7 +37285,7 @@
         <v>44657</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37342,7 +37342,7 @@
         <v>44663</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37404,7 +37404,7 @@
         <v>44671</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37461,7 +37461,7 @@
         <v>44671</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37518,7 +37518,7 @@
         <v>44671</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37575,7 +37575,7 @@
         <v>44673</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37632,7 +37632,7 @@
         <v>44673</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37689,7 +37689,7 @@
         <v>44677</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37746,7 +37746,7 @@
         <v>44678</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37808,7 +37808,7 @@
         <v>44678</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>44706</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>44715</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>44721</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -38046,7 +38046,7 @@
         <v>44722</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -38103,7 +38103,7 @@
         <v>44727</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38160,7 +38160,7 @@
         <v>44729</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38217,7 +38217,7 @@
         <v>44734</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>44735</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38336,7 +38336,7 @@
         <v>44740</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38393,7 +38393,7 @@
         <v>44741</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>44743</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38512,7 +38512,7 @@
         <v>44743</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38574,7 +38574,7 @@
         <v>44747</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38631,7 +38631,7 @@
         <v>44749</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38688,7 +38688,7 @@
         <v>44755</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38750,7 +38750,7 @@
         <v>44788</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38807,7 +38807,7 @@
         <v>44789</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38864,7 +38864,7 @@
         <v>44795</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38921,7 +38921,7 @@
         <v>44795</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38983,7 +38983,7 @@
         <v>44795</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -39045,7 +39045,7 @@
         <v>44796</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>44796</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39159,7 +39159,7 @@
         <v>44796</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39216,7 +39216,7 @@
         <v>44796</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39273,7 +39273,7 @@
         <v>44796</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39330,7 +39330,7 @@
         <v>44797</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39392,7 +39392,7 @@
         <v>44798</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39454,7 +39454,7 @@
         <v>44798</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39511,7 +39511,7 @@
         <v>44799</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39573,7 +39573,7 @@
         <v>44809</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39635,7 +39635,7 @@
         <v>44812</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39692,7 +39692,7 @@
         <v>44815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39754,7 +39754,7 @@
         <v>44818</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39811,7 +39811,7 @@
         <v>44820</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39873,7 +39873,7 @@
         <v>44823</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>44830</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>44831</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>44831</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>44832</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40173,7 +40173,7 @@
         <v>44832</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40230,7 +40230,7 @@
         <v>44833</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40287,7 +40287,7 @@
         <v>44833</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40344,7 +40344,7 @@
         <v>44838</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40406,7 +40406,7 @@
         <v>44840</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40468,7 +40468,7 @@
         <v>44844</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40525,7 +40525,7 @@
         <v>44844</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40582,7 +40582,7 @@
         <v>44847</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40639,7 +40639,7 @@
         <v>44848</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40696,7 +40696,7 @@
         <v>44852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>44853</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40820,7 +40820,7 @@
         <v>44853</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>44854</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40944,7 +40944,7 @@
         <v>44859</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>44862</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41068,7 +41068,7 @@
         <v>44865</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41130,7 +41130,7 @@
         <v>44867</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41192,7 +41192,7 @@
         <v>44868</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41249,7 +41249,7 @@
         <v>44874</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41311,7 +41311,7 @@
         <v>44874</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41373,7 +41373,7 @@
         <v>44881</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41430,7 +41430,7 @@
         <v>44883</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41492,7 +41492,7 @@
         <v>44883</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41554,7 +41554,7 @@
         <v>44883</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41616,7 +41616,7 @@
         <v>44887</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41678,7 +41678,7 @@
         <v>44887</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41740,7 +41740,7 @@
         <v>44889</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41797,7 +41797,7 @@
         <v>44897</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41854,7 +41854,7 @@
         <v>44897</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41911,7 +41911,7 @@
         <v>44900</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41973,7 +41973,7 @@
         <v>44900</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -42030,7 +42030,7 @@
         <v>44901</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42087,7 +42087,7 @@
         <v>44901</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42144,7 +42144,7 @@
         <v>44903</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42206,7 +42206,7 @@
         <v>44903</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42263,7 +42263,7 @@
         <v>44908</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42320,7 +42320,7 @@
         <v>44908</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42377,7 +42377,7 @@
         <v>44908</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42434,7 +42434,7 @@
         <v>44910</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42496,7 +42496,7 @@
         <v>44911</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42553,7 +42553,7 @@
         <v>44911</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42610,7 +42610,7 @@
         <v>44911</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42667,7 +42667,7 @@
         <v>44917</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42724,7 +42724,7 @@
         <v>44924</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42781,7 +42781,7 @@
         <v>44925</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42838,7 +42838,7 @@
         <v>44931</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42895,7 +42895,7 @@
         <v>44935</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42952,7 +42952,7 @@
         <v>44943</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -43009,7 +43009,7 @@
         <v>44946</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43066,7 +43066,7 @@
         <v>44956</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43123,7 +43123,7 @@
         <v>44963</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43180,7 +43180,7 @@
         <v>44964</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43242,7 +43242,7 @@
         <v>44966</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43299,7 +43299,7 @@
         <v>44970</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43356,7 +43356,7 @@
         <v>44979</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43418,7 +43418,7 @@
         <v>44981</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43475,7 +43475,7 @@
         <v>44983</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43532,7 +43532,7 @@
         <v>44994</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43589,7 +43589,7 @@
         <v>44994</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43646,7 +43646,7 @@
         <v>44994</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43703,7 +43703,7 @@
         <v>44994</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43760,7 +43760,7 @@
         <v>45001</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>45005</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>45005</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43931,7 +43931,7 @@
         <v>45005</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43988,7 +43988,7 @@
         <v>45006</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44045,7 +44045,7 @@
         <v>45013</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44102,7 +44102,7 @@
         <v>45013</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44159,7 +44159,7 @@
         <v>45013</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44216,7 +44216,7 @@
         <v>45022</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44273,7 +44273,7 @@
         <v>45028</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44330,7 +44330,7 @@
         <v>45035</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44387,7 +44387,7 @@
         <v>45044</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44449,7 +44449,7 @@
         <v>45049</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44506,7 +44506,7 @@
         <v>45049</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44563,7 +44563,7 @@
         <v>45051</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44620,7 +44620,7 @@
         <v>45054</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45054</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>45055</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>45056</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44848,7 +44848,7 @@
         <v>45068</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44905,7 +44905,7 @@
         <v>45070</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44962,7 +44962,7 @@
         <v>45072</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45024,7 +45024,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45081,7 +45081,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45138,7 +45138,7 @@
         <v>45077</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45195,7 +45195,7 @@
         <v>45077</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45252,7 +45252,7 @@
         <v>45079</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45309,7 +45309,7 @@
         <v>45079</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45366,7 +45366,7 @@
         <v>45085</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45423,7 +45423,7 @@
         <v>45085</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45480,7 +45480,7 @@
         <v>45091</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45537,7 +45537,7 @@
         <v>45091</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45594,7 +45594,7 @@
         <v>45099</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45651,7 +45651,7 @@
         <v>45099</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45708,7 +45708,7 @@
         <v>45099</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45765,7 +45765,7 @@
         <v>45102</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45822,7 +45822,7 @@
         <v>45103</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45879,7 +45879,7 @@
         <v>45110</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45941,7 +45941,7 @@
         <v>45110</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46003,7 +46003,7 @@
         <v>45110</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46065,7 +46065,7 @@
         <v>45113</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46127,7 +46127,7 @@
         <v>45120</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46184,7 +46184,7 @@
         <v>45124</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46241,7 +46241,7 @@
         <v>45139</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46303,7 +46303,7 @@
         <v>45152</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46360,7 +46360,7 @@
         <v>45152</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46417,7 +46417,7 @@
         <v>45152</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46474,7 +46474,7 @@
         <v>45153</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46531,7 +46531,7 @@
         <v>45153</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46588,7 +46588,7 @@
         <v>45160</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46645,7 +46645,7 @@
         <v>45160</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46702,7 +46702,7 @@
         <v>45160</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46759,7 +46759,7 @@
         <v>45161</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46821,7 +46821,7 @@
         <v>45161</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46883,7 +46883,7 @@
         <v>45161</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46945,7 +46945,7 @@
         <v>45161</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47002,7 +47002,7 @@
         <v>45162</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47059,7 +47059,7 @@
         <v>45162</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47116,7 +47116,7 @@
         <v>45163</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47173,7 +47173,7 @@
         <v>45163</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47230,7 +47230,7 @@
         <v>45163</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47287,7 +47287,7 @@
         <v>45187</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>

--- a/Översikt BODEN.xlsx
+++ b/Översikt BODEN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y752"/>
+  <dimension ref="A1:Y753"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44621</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>44853</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>43745</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>43896</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         <v>44082</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
         <v>44859</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         <v>44889</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         <v>43917</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1444,7 +1444,7 @@
         <v>43745</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1538,7 +1538,7 @@
         <v>43754</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         <v>44169</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         <v>45049</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>43445</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>43808</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         <v>43991</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         <v>44010</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>44158</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>44364</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>43572</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2440,7 +2440,7 @@
         <v>43774</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         <v>43787</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         <v>43787</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2720,7 +2720,7 @@
         <v>43802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>44082</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         <v>44084</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         <v>44130</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44337</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44868</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         <v>44875</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>44904</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3451,7 +3451,7 @@
         <v>44964</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43579</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3634,7 +3634,7 @@
         <v>43601</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3725,7 +3725,7 @@
         <v>43745</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>43762</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
         <v>44064</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4002,7 +4002,7 @@
         <v>44082</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         <v>44165</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         <v>44166</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44536</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4361,7 +4361,7 @@
         <v>44609</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
         <v>44804</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4538,7 +4538,7 @@
         <v>45072</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45188</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>43322</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>43361</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>43397</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>43399</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>43427</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         <v>43579</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>43665</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5435,7 +5435,7 @@
         <v>43752</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43766</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         <v>43787</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43797</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>43966</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44062</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>44064</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44082</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
         <v>44088</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
         <v>44124</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6332,7 +6332,7 @@
         <v>44365</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>44421</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6602,7 +6602,7 @@
         <v>44648</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6692,7 +6692,7 @@
         <v>44692</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6782,7 +6782,7 @@
         <v>44840</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>44869</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>44910</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>44964</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44992</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>45098</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>45104</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7407,7 +7407,7 @@
         <v>43333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7464,7 +7464,7 @@
         <v>43349</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7521,7 +7521,7 @@
         <v>43355</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         <v>43361</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7635,7 +7635,7 @@
         <v>43363</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7692,7 +7692,7 @@
         <v>43364</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         <v>43364</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>43368</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>43368</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7920,7 +7920,7 @@
         <v>43368</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43369</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8034,7 +8034,7 @@
         <v>43371</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>43374</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43377</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43378</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         <v>43381</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8329,7 +8329,7 @@
         <v>43381</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8386,7 +8386,7 @@
         <v>43381</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8448,7 +8448,7 @@
         <v>43381</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>43382</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8562,7 +8562,7 @@
         <v>43383</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8619,7 +8619,7 @@
         <v>43384</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8681,7 +8681,7 @@
         <v>43384</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>43385</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8805,7 +8805,7 @@
         <v>43387</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8862,7 +8862,7 @@
         <v>43389</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8919,7 +8919,7 @@
         <v>43389</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>43390</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>43390</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>43395</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9152,7 +9152,7 @@
         <v>43395</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9214,7 +9214,7 @@
         <v>43395</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         <v>43396</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>43398</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>43399</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>43400</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>43402</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>43402</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9633,7 +9633,7 @@
         <v>43404</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9690,7 +9690,7 @@
         <v>43404</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9747,7 +9747,7 @@
         <v>43411</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9804,7 +9804,7 @@
         <v>43419</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>43423</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9928,7 +9928,7 @@
         <v>43425</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9985,7 +9985,7 @@
         <v>43427</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>43427</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10104,7 +10104,7 @@
         <v>43427</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         <v>43427</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10228,7 +10228,7 @@
         <v>43427</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>43430</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10347,7 +10347,7 @@
         <v>43431</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>43433</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>43433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>43433</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>43433</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>43436</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>43438</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>43438</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>43438</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>43438</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43438</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43439</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43440</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43440</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43445</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43448</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43448</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43451</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43462</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43467</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43467</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11616,7 +11616,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11678,7 +11678,7 @@
         <v>43475</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43483</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43495</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>43495</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>43495</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11983,7 +11983,7 @@
         <v>43501</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12045,7 +12045,7 @@
         <v>43501</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>43501</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12169,7 +12169,7 @@
         <v>43509</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>43510</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>43510</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>43510</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>43515</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12474,7 +12474,7 @@
         <v>43524</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12536,7 +12536,7 @@
         <v>43531</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         <v>43540</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12650,7 +12650,7 @@
         <v>43545</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12712,7 +12712,7 @@
         <v>43545</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12774,7 +12774,7 @@
         <v>43558</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43563</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>43565</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>43567</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>43573</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13069,7 +13069,7 @@
         <v>43573</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13126,7 +13126,7 @@
         <v>43579</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43584</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43586</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>43591</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13364,7 +13364,7 @@
         <v>43591</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>43591</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>43593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>43598</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>43600</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13664,7 +13664,7 @@
         <v>43602</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13726,7 +13726,7 @@
         <v>43602</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43609</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43609</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>43614</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13964,7 +13964,7 @@
         <v>43616</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14021,7 +14021,7 @@
         <v>43616</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14078,7 +14078,7 @@
         <v>43616</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14135,7 +14135,7 @@
         <v>43621</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         <v>43621</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>43621</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>43627</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>43628</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>43628</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>43630</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14579,7 +14579,7 @@
         <v>43636</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14636,7 +14636,7 @@
         <v>43636</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>43636</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>43639</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43640</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>43641</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>43643</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>43644</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15050,7 +15050,7 @@
         <v>43647</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15107,7 +15107,7 @@
         <v>43650</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15169,7 +15169,7 @@
         <v>43650</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15226,7 +15226,7 @@
         <v>43654</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43655</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>43657</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>43657</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>43661</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15526,7 +15526,7 @@
         <v>43661</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15588,7 +15588,7 @@
         <v>43663</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15650,7 +15650,7 @@
         <v>43663</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15707,7 +15707,7 @@
         <v>43663</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15769,7 +15769,7 @@
         <v>43664</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15831,7 +15831,7 @@
         <v>43678</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15893,7 +15893,7 @@
         <v>43685</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15955,7 +15955,7 @@
         <v>43689</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16012,7 +16012,7 @@
         <v>43689</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16069,7 +16069,7 @@
         <v>43692</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16126,7 +16126,7 @@
         <v>43692</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>43692</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>43696</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         <v>43698</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>43703</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16436,7 +16436,7 @@
         <v>43703</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>43704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16560,7 +16560,7 @@
         <v>43707</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16622,7 +16622,7 @@
         <v>43712</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>43713</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>43719</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>43719</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16865,7 +16865,7 @@
         <v>43719</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43719</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16989,7 +16989,7 @@
         <v>43719</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>43719</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>43720</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>43721</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>43725</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17299,7 +17299,7 @@
         <v>43725</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17356,7 +17356,7 @@
         <v>43727</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17413,7 +17413,7 @@
         <v>43727</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         <v>43727</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17537,7 +17537,7 @@
         <v>43732</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17594,7 +17594,7 @@
         <v>43732</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17651,7 +17651,7 @@
         <v>43732</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         <v>43733</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17775,7 +17775,7 @@
         <v>43738</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>43742</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>43742</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>43742</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18008,7 +18008,7 @@
         <v>43742</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18065,7 +18065,7 @@
         <v>43742</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18122,7 +18122,7 @@
         <v>43742</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18179,7 +18179,7 @@
         <v>43745</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18241,7 +18241,7 @@
         <v>43753</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18298,7 +18298,7 @@
         <v>43754</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18360,7 +18360,7 @@
         <v>43754</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>43759</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18484,7 +18484,7 @@
         <v>43759</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18541,7 +18541,7 @@
         <v>43760</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18603,7 +18603,7 @@
         <v>43760</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>43760</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>43760</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>43760</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>43760</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18913,7 +18913,7 @@
         <v>43762</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18975,7 +18975,7 @@
         <v>43762</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19037,7 +19037,7 @@
         <v>43763</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19099,7 +19099,7 @@
         <v>43766</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>43766</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19218,7 +19218,7 @@
         <v>43770</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19275,7 +19275,7 @@
         <v>43773</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>43774</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>43774</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19461,7 +19461,7 @@
         <v>43777</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19518,7 +19518,7 @@
         <v>43781</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>43781</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>43782</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>43784</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>43784</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>43787</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43794</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43797</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>43797</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20051,7 +20051,7 @@
         <v>43801</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20113,7 +20113,7 @@
         <v>43802</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>43804</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>43805</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>43807</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>43809</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>43810</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>43816</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>43819</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>43843</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>43850</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>43850</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>43853</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>43854</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>43859</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>43865</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>43874</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21055,7 +21055,7 @@
         <v>43887</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21112,7 +21112,7 @@
         <v>43896</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21169,7 +21169,7 @@
         <v>43901</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>43901</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21293,7 +21293,7 @@
         <v>43901</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>43905</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21417,7 +21417,7 @@
         <v>43907</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>43927</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>43927</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>43936</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>43958</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21794,7 +21794,7 @@
         <v>43964</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21851,7 +21851,7 @@
         <v>43964</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>43965</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21970,7 +21970,7 @@
         <v>43965</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>43971</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22094,7 +22094,7 @@
         <v>43971</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>43979</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>43983</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22275,7 +22275,7 @@
         <v>43983</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>43983</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22399,7 +22399,7 @@
         <v>43983</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22461,7 +22461,7 @@
         <v>43990</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22518,7 +22518,7 @@
         <v>43994</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22580,7 +22580,7 @@
         <v>43997</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22642,7 +22642,7 @@
         <v>43998</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22704,7 +22704,7 @@
         <v>44004</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44005</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44005</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44005</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44005</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22999,7 +22999,7 @@
         <v>44007</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>44007</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23113,7 +23113,7 @@
         <v>44007</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44008</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23227,7 +23227,7 @@
         <v>44013</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23289,7 +23289,7 @@
         <v>44015</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23346,7 +23346,7 @@
         <v>44015</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44020</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44021</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44022</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23589,7 +23589,7 @@
         <v>44029</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>44029</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>44029</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>44029</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44035</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44035</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23961,7 +23961,7 @@
         <v>44035</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44035</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24085,7 +24085,7 @@
         <v>44035</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24147,7 +24147,7 @@
         <v>44035</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>44035</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>44035</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>44046</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44047</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24452,7 +24452,7 @@
         <v>44050</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24514,7 +24514,7 @@
         <v>44050</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24576,7 +24576,7 @@
         <v>44053</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24638,7 +24638,7 @@
         <v>44054</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24700,7 +24700,7 @@
         <v>44057</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24757,7 +24757,7 @@
         <v>44062</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24814,7 +24814,7 @@
         <v>44064</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24871,7 +24871,7 @@
         <v>44067</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>44070</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24990,7 +24990,7 @@
         <v>44075</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25047,7 +25047,7 @@
         <v>44077</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25109,7 +25109,7 @@
         <v>44077</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44090</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44092</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25290,7 +25290,7 @@
         <v>44099</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25347,7 +25347,7 @@
         <v>44110</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
         <v>44110</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25466,7 +25466,7 @@
         <v>44110</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25528,7 +25528,7 @@
         <v>44110</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>44110</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>44110</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>44111</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>44116</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25828,7 +25828,7 @@
         <v>44119</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25890,7 +25890,7 @@
         <v>44120</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25947,7 +25947,7 @@
         <v>44120</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26004,7 +26004,7 @@
         <v>44120</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26061,7 +26061,7 @@
         <v>44124</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26118,7 +26118,7 @@
         <v>44125</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26180,7 +26180,7 @@
         <v>44126</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26242,7 +26242,7 @@
         <v>44127</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26299,7 +26299,7 @@
         <v>44130</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26356,7 +26356,7 @@
         <v>44138</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26418,7 +26418,7 @@
         <v>44143</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26475,7 +26475,7 @@
         <v>44151</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26537,7 +26537,7 @@
         <v>44151</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26599,7 +26599,7 @@
         <v>44153</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>44154</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>44158</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>44158</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26832,7 +26832,7 @@
         <v>44158</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26889,7 +26889,7 @@
         <v>44158</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26946,7 +26946,7 @@
         <v>44164</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27008,7 +27008,7 @@
         <v>44165</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27070,7 +27070,7 @@
         <v>44165</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27127,7 +27127,7 @@
         <v>44168</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27189,7 +27189,7 @@
         <v>44168</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27246,7 +27246,7 @@
         <v>44173</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44173</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27370,7 +27370,7 @@
         <v>44174</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27432,7 +27432,7 @@
         <v>44174</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27509,7 +27509,7 @@
         <v>44182</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>44182</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27623,7 +27623,7 @@
         <v>44182</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27680,7 +27680,7 @@
         <v>44182</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27737,7 +27737,7 @@
         <v>44182</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27794,7 +27794,7 @@
         <v>44187</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27851,7 +27851,7 @@
         <v>44204</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27908,7 +27908,7 @@
         <v>44207</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27965,7 +27965,7 @@
         <v>44211</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28022,7 +28022,7 @@
         <v>44215</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28079,7 +28079,7 @@
         <v>44216</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28136,7 +28136,7 @@
         <v>44216</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28193,7 +28193,7 @@
         <v>44217</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28250,7 +28250,7 @@
         <v>44217</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28307,7 +28307,7 @@
         <v>44217</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28364,7 +28364,7 @@
         <v>44223</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28421,7 +28421,7 @@
         <v>44223</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28478,7 +28478,7 @@
         <v>44238</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28535,7 +28535,7 @@
         <v>44248</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28592,7 +28592,7 @@
         <v>44248</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28649,7 +28649,7 @@
         <v>44274</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>44274</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28763,7 +28763,7 @@
         <v>44274</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>44274</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28877,7 +28877,7 @@
         <v>44274</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28934,7 +28934,7 @@
         <v>44284</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28996,7 +28996,7 @@
         <v>44286</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29053,7 +29053,7 @@
         <v>44286</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29110,7 +29110,7 @@
         <v>44286</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29167,7 +29167,7 @@
         <v>44292</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>44293</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44298</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44299</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44313</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>44313</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>44313</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>44313</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44313</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44322</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44330</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>44333</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>44350</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>44350</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>44350</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30027,7 +30027,7 @@
         <v>44356</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30084,7 +30084,7 @@
         <v>44356</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30141,7 +30141,7 @@
         <v>44356</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30198,7 +30198,7 @@
         <v>44358</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30260,7 +30260,7 @@
         <v>44358</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30317,7 +30317,7 @@
         <v>44369</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30374,7 +30374,7 @@
         <v>44374</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         <v>44378</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30488,7 +30488,7 @@
         <v>44378</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>44378</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30602,7 +30602,7 @@
         <v>44386</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30659,7 +30659,7 @@
         <v>44391</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30716,7 +30716,7 @@
         <v>44391</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         <v>44413</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30892,7 +30892,7 @@
         <v>44414</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>44414</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>44414</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31063,7 +31063,7 @@
         <v>44414</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31120,7 +31120,7 @@
         <v>44414</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31177,7 +31177,7 @@
         <v>44414</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31234,7 +31234,7 @@
         <v>44414</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31291,7 +31291,7 @@
         <v>44417</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>44423</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31405,7 +31405,7 @@
         <v>44426</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>44438</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31524,7 +31524,7 @@
         <v>44438</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31581,7 +31581,7 @@
         <v>44439</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31638,7 +31638,7 @@
         <v>44439</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31695,7 +31695,7 @@
         <v>44441</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31752,7 +31752,7 @@
         <v>44445</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31814,7 +31814,7 @@
         <v>44445</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31871,7 +31871,7 @@
         <v>44445</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31928,7 +31928,7 @@
         <v>44447</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>44463</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32052,7 +32052,7 @@
         <v>44464</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32109,7 +32109,7 @@
         <v>44464</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
         <v>44467</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32223,7 +32223,7 @@
         <v>44469</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32285,7 +32285,7 @@
         <v>44469</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32347,7 +32347,7 @@
         <v>44469</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32409,7 +32409,7 @@
         <v>44473</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32471,7 +32471,7 @@
         <v>44474</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32528,7 +32528,7 @@
         <v>44474</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32585,7 +32585,7 @@
         <v>44474</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32647,7 +32647,7 @@
         <v>44476</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32709,7 +32709,7 @@
         <v>44477</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32766,7 +32766,7 @@
         <v>44480</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32823,7 +32823,7 @@
         <v>44480</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32880,7 +32880,7 @@
         <v>44484</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32942,7 +32942,7 @@
         <v>44484</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33004,7 +33004,7 @@
         <v>44484</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33061,7 +33061,7 @@
         <v>44487</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33118,7 +33118,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33175,7 +33175,7 @@
         <v>44489</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33232,7 +33232,7 @@
         <v>44489</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33289,7 +33289,7 @@
         <v>44489</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33346,7 +33346,7 @@
         <v>44489</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33408,7 +33408,7 @@
         <v>44490</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33470,7 +33470,7 @@
         <v>44491</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33527,7 +33527,7 @@
         <v>44500</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33584,7 +33584,7 @@
         <v>44505</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33641,7 +33641,7 @@
         <v>44509</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33698,7 +33698,7 @@
         <v>44515</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33755,7 +33755,7 @@
         <v>44524</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33812,7 +33812,7 @@
         <v>44529</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33869,7 +33869,7 @@
         <v>44529</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33926,7 +33926,7 @@
         <v>44529</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33983,7 +33983,7 @@
         <v>44529</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34040,7 +34040,7 @@
         <v>44529</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34097,7 +34097,7 @@
         <v>44529</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34154,7 +34154,7 @@
         <v>44529</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34211,7 +34211,7 @@
         <v>44530</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34273,7 +34273,7 @@
         <v>44530</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44532</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44552</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44558</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44565</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34563,7 +34563,7 @@
         <v>44565</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34620,7 +34620,7 @@
         <v>44565</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34677,7 +34677,7 @@
         <v>44566</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34734,7 +34734,7 @@
         <v>44566</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34791,7 +34791,7 @@
         <v>44566</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34848,7 +34848,7 @@
         <v>44566</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34905,7 +34905,7 @@
         <v>44566</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34962,7 +34962,7 @@
         <v>44568</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35019,7 +35019,7 @@
         <v>44573</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -35081,7 +35081,7 @@
         <v>44573</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>